--- a/data/hotels_by_city/Houston/Houston_shard_149.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_149.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="444">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g1009393-d6956306-Reviews-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +148,1214 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r571729894-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>1009393</t>
+  </si>
+  <si>
+    <t>6956306</t>
+  </si>
+  <si>
+    <t>571729894</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>Excellent hotel and service!</t>
+  </si>
+  <si>
+    <t>Beautiful hotel, great location, always clean and the staff is so helpful and kind. Our church uses the conference rooms often and our experiences with them have been nothing but excellent. I highly recommend them!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Shanda M, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Beautiful hotel, great location, always clean and the staff is so helpful and kind. Our church uses the conference rooms often and our experiences with them have been nothing but excellent. I highly recommend them!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r570800924-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>570800924</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>Rent space and they're GREAT!</t>
+  </si>
+  <si>
+    <t>The Courtyard is clean, smells great, and is managed by genuinely good people. We rent space from them weekly for our church services and they are incredibly accommodating! I have not, personally, been in one of the hotel rooms but, from what I know about the excellence of this hotel, I'm sure they're fantastic too!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>The Courtyard is clean, smells great, and is managed by genuinely good people. We rent space from them weekly for our church services and they are incredibly accommodating! I have not, personally, been in one of the hotel rooms but, from what I know about the excellence of this hotel, I'm sure they're fantastic too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r567462150-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>567462150</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>close to event activities</t>
+  </si>
+  <si>
+    <t>this is a new, modern hotel. it is walking distance to the football stadium and the pool. there are restaurants and shopping areas close by. The staffs are friendly and helpful. Laundry machines are new and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>this is a new, modern hotel. it is walking distance to the football stadium and the pool. there are restaurants and shopping areas close by. The staffs are friendly and helpful. Laundry machines are new and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r545613293-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>545613293</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Awesome place to have your event!</t>
+  </si>
+  <si>
+    <t>I recently had a 2 day business meeting here and the services was fantastic. My group loved the food provided by the hotel during the lunches. the staff was friendly and helpful. Laura and Leah are the bomb!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Shanda M, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>I recently had a 2 day business meeting here and the services was fantastic. My group loved the food provided by the hotel during the lunches. the staff was friendly and helpful. Laura and Leah are the bomb!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r542527759-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>542527759</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Travelers, very nice Courtyard with good Wi Fi Speed!</t>
+  </si>
+  <si>
+    <t>Travelers, very nice Courtyard with good Wi Fi Speed! Again, this is a newer Courtyard that is still in great shape. However, these new desk chairs are HORRIBLE and very uncomfortable! Oh, the Wi Fi Speed is pretty good!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Shanda M, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded November 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2017</t>
+  </si>
+  <si>
+    <t>Travelers, very nice Courtyard with good Wi Fi Speed! Again, this is a newer Courtyard that is still in great shape. However, these new desk chairs are HORRIBLE and very uncomfortable! Oh, the Wi Fi Speed is pretty good!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r538759492-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>538759492</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Awesome service!!</t>
+  </si>
+  <si>
+    <t>Stayed here for our anniversary and loved it! Great location and one of the nicer hotels I have stayed in. Bed was one of the most comfortable I've slept in! Also, service was awesome. They got wind it was our anniversary and did something very nice for us. Will not stay anywhere else when visiting the area in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Shanda M, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for our anniversary and loved it! Great location and one of the nicer hotels I have stayed in. Bed was one of the most comfortable I've slept in! Also, service was awesome. They got wind it was our anniversary and did something very nice for us. Will not stay anywhere else when visiting the area in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r527703428-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>527703428</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>Perfect for meetings and groups</t>
+  </si>
+  <si>
+    <t>From start to finish, everything was amazing about Courtyard Houston North / Shenandoah. Due to the hurricane, we had to change locations. Laura and Leah were so willing to help give our group the perfect accommodations. The meeting was flawless. Our group raved about the food, hospitality, atmosphere. Brooklyn, Justin, Marshal and Page took excellent care of the guests. They spoke about how friendly the manager, Shanda was. The food was amazing! Top of the line Chef Jason was impressing with his made from scratch foods. The pecan crusted chicken made our trip! Best we have ever tasted. Jr in engineering was so helpful with our set up needs. The attention to detail for Laura and Leah was the glue that brought this meeting together. Definitely will be booking  our next event with them again. You can not go wrong with this hotel. If you need your group handled with first class treatment, call Laura and Leah. By far best in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>From start to finish, everything was amazing about Courtyard Houston North / Shenandoah. Due to the hurricane, we had to change locations. Laura and Leah were so willing to help give our group the perfect accommodations. The meeting was flawless. Our group raved about the food, hospitality, atmosphere. Brooklyn, Justin, Marshal and Page took excellent care of the guests. They spoke about how friendly the manager, Shanda was. The food was amazing! Top of the line Chef Jason was impressing with his made from scratch foods. The pecan crusted chicken made our trip! Best we have ever tasted. Jr in engineering was so helpful with our set up needs. The attention to detail for Laura and Leah was the glue that brought this meeting together. Definitely will be booking  our next event with them again. You can not go wrong with this hotel. If you need your group handled with first class treatment, call Laura and Leah. By far best in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r526054957-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>526054957</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Quiet place, great room, bad service.</t>
+  </si>
+  <si>
+    <t>Checked in without incident.  The hotel is new and fresh.  The bed was very comfy.  Very modern clean.  If I stopped here anyone would stay.  However when I woke up, cleaned up and went down for breakfast I learned you had to pay.  Well, ok.  Not great but ok. (every hotel on earth of this class has free breakfast - FYI).  The next thing was to find someone to take my order.  After 15 minutes I gave up and reached around the counter and grabbed a 3 dollar muffin.  I ate it.  Finally some dude who has been running around looking after his own stuff came to the till and ALLOWED me to pay.  There was a  ine up of very confused looking people.  I don't think this was the owner's plan....needs work.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Checked in without incident.  The hotel is new and fresh.  The bed was very comfy.  Very modern clean.  If I stopped here anyone would stay.  However when I woke up, cleaned up and went down for breakfast I learned you had to pay.  Well, ok.  Not great but ok. (every hotel on earth of this class has free breakfast - FYI).  The next thing was to find someone to take my order.  After 15 minutes I gave up and reached around the counter and grabbed a 3 dollar muffin.  I ate it.  Finally some dude who has been running around looking after his own stuff came to the till and ALLOWED me to pay.  There was a  ine up of very confused looking people.  I don't think this was the owner's plan....needs work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r516867247-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>516867247</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frazier, Joseph </t>
+  </si>
+  <si>
+    <t>Love this place!  Spend a lot of time here.  My host hotel in Houston.  Marshall, Eric, Paige, and Shannon staff here, A-list! Friendly service, professional, over extend themselves for customer service, and the Bistro's  food selections and convenience will make your stay whether leisure or business most enjoyable.   MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2017</t>
+  </si>
+  <si>
+    <t>Love this place!  Spend a lot of time here.  My host hotel in Houston.  Marshall, Eric, Paige, and Shannon staff here, A-list! Friendly service, professional, over extend themselves for customer service, and the Bistro's  food selections and convenience will make your stay whether leisure or business most enjoyable.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r507924885-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>507924885</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Awesome visit</t>
+  </si>
+  <si>
+    <t>Recently visited my children in Houston and stayed here for first time. Had an excellent room, very clean and everyone was extremely nice and courteous. Will definitely use this hotel again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Recently visited my children in Houston and stayed here for first time. Had an excellent room, very clean and everyone was extremely nice and courteous. Will definitely use this hotel again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r506296283-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>506296283</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Wonderful!</t>
+  </si>
+  <si>
+    <t>We recently held our summer Sales Conference here and everything worked out perfectly!  From the rooms, to the Conference room, and the food, and A/V!  Everyone was so helpful!  Go see Laura and Leah and they will take excellent care of you!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>We recently held our summer Sales Conference here and everything worked out perfectly!  From the rooms, to the Conference room, and the food, and A/V!  Everyone was so helpful!  Go see Laura and Leah and they will take excellent care of you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r506042631-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>506042631</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Excellent public relations and professionalism - Great job Leah Tiemann (Sales coordnator)</t>
+  </si>
+  <si>
+    <t>My experience with the staff member Leah at the Courtyard Houston North Shenandoah was excellent.  My husband was there on business and stayed at the Courtyard.  While he was there he had a birthday...  I couldn't be there with him and   wanted to surprise him with a special birthday treat. Edible Arrangements were unable to secure same day delivery...   Therefore, I contacted the hotel and spoke with Leah.   She went over and above to assist me with surprising my husband  with a special birthday dessert.  In fact, once she secured the dessert (Cheese cake with chocolate sauce and strawberries).  Leah had the dessert and  a glass of wine delivered to my husband's room.  He was totally surprised.  He will continue to stay at this location when every visiting Texas.  Thanks Leah for making my husband's birthday special!  I could not have done it without your assistance.  Again, thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>My experience with the staff member Leah at the Courtyard Houston North Shenandoah was excellent.  My husband was there on business and stayed at the Courtyard.  While he was there he had a birthday...  I couldn't be there with him and   wanted to surprise him with a special birthday treat. Edible Arrangements were unable to secure same day delivery...   Therefore, I contacted the hotel and spoke with Leah.   She went over and above to assist me with surprising my husband  with a special birthday dessert.  In fact, once she secured the dessert (Cheese cake with chocolate sauce and strawberries).  Leah had the dessert and  a glass of wine delivered to my husband's room.  He was totally surprised.  He will continue to stay at this location when every visiting Texas.  Thanks Leah for making my husband's birthday special!  I could not have done it without your assistance.  Again, thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r495424271-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>495424271</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>One night pre cruise stay</t>
+  </si>
+  <si>
+    <t>We booked this hotel the night before our cruise out of Galveston. We were driving in from OKC and meeting relatives for dinner near Conroe. We arrived 6/10. The hotel was busy and the lobby was a bit loud but everyone was very friendly. The hotel grounds were clean and appeared safe. The front desk staff and bar staff provided us with wonderful customer service. Our room exceeded our expectations. The decor and style of the room and bathroom compared to those in luxury hotels. In fact a few months ago I stayed at the new Marriott Marquis in downtown Houston for $300+ a night and this hotel room blew that one out of the water.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>We booked this hotel the night before our cruise out of Galveston. We were driving in from OKC and meeting relatives for dinner near Conroe. We arrived 6/10. The hotel was busy and the lobby was a bit loud but everyone was very friendly. The hotel grounds were clean and appeared safe. The front desk staff and bar staff provided us with wonderful customer service. Our room exceeded our expectations. The decor and style of the room and bathroom compared to those in luxury hotels. In fact a few months ago I stayed at the new Marriott Marquis in downtown Houston for $300+ a night and this hotel room blew that one out of the water.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r490443348-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>490443348</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Two Night Business Stay</t>
+  </si>
+  <si>
+    <t>Stayed here recently for a couple nights while doing business locally. Check in was interesting was first time doing online check in through the app. The advantage was walking up and the walking away with no wait. Love this service. Plenty of parking during the week. Nice, new, clean. They had a nice bar restaurant area. No free breakfast which is a timesaver I missed. Not enough coffee in room, just one of each packet cafe and non-caffe. Bed was comfy, HBO free, and air conditioner ran quiet. Great night sleep. This is about an hour drive from the airport. Took the tollway instead of the 45 and avoided a lot of traffic. Right across the street from a Home Depot and there's a nearby Mall with restaurants. Bit of a drive to Mcdonalds. Felt very safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here recently for a couple nights while doing business locally. Check in was interesting was first time doing online check in through the app. The advantage was walking up and the walking away with no wait. Love this service. Plenty of parking during the week. Nice, new, clean. They had a nice bar restaurant area. No free breakfast which is a timesaver I missed. Not enough coffee in room, just one of each packet cafe and non-caffe. Bed was comfy, HBO free, and air conditioner ran quiet. Great night sleep. This is about an hour drive from the airport. Took the tollway instead of the 45 and avoided a lot of traffic. Right across the street from a Home Depot and there's a nearby Mall with restaurants. Bit of a drive to Mcdonalds. Felt very safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r486118277-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>486118277</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and friendly </t>
+  </si>
+  <si>
+    <t>My wife and I stayed here one night on a trip to Houston. It was what you would expect from a Marriott property, clean, comfortable, quiet and friendly. It's in close proximity to the Woodlands mall and easy to locate from the highway. We booked on Expedia with taxes etc and total charges was $100. 58 for a king and two adults. MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here one night on a trip to Houston. It was what you would expect from a Marriott property, clean, comfortable, quiet and friendly. It's in close proximity to the Woodlands mall and easy to locate from the highway. We booked on Expedia with taxes etc and total charges was $100. 58 for a king and two adults. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r453535564-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>453535564</t>
+  </si>
+  <si>
+    <t>01/20/2017</t>
+  </si>
+  <si>
+    <t>Good Hosts</t>
+  </si>
+  <si>
+    <t>Rented meeting room for a two day sales conference, both Laura &amp; Leah were great hosts and guests enjoyed staying at the hotel.   Central location, newer facility, and walking distance to stores and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Rented meeting room for a two day sales conference, both Laura &amp; Leah were great hosts and guests enjoyed staying at the hotel.   Central location, newer facility, and walking distance to stores and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r446505700-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>446505700</t>
+  </si>
+  <si>
+    <t>12/24/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christmas Eve </t>
+  </si>
+  <si>
+    <t>Greeted with a warm smile. Room is nice with sofa, king size bed, mini fridge, microwave and giant walk in shower. Nice room setup. Hubby enjoying tv from the sofa. Bed is wonderful. We will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2016</t>
+  </si>
+  <si>
+    <t>Greeted with a warm smile. Room is nice with sofa, king size bed, mini fridge, microwave and giant walk in shower. Nice room setup. Hubby enjoying tv from the sofa. Bed is wonderful. We will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r442739988-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>442739988</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Nice clean and new</t>
+  </si>
+  <si>
+    <t>Stayed here for a sporting event it is located right next to a natatorium and football stadium.  Nice hotel but rooms a bit small and the walls are paper thin.  Also in this price range many competitors offer free breakfast, this hotel should as well as I will stay elsewhere next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for a sporting event it is located right next to a natatorium and football stadium.  Nice hotel but rooms a bit small and the walls are paper thin.  Also in this price range many competitors offer free breakfast, this hotel should as well as I will stay elsewhere next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r436388082-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>436388082</t>
+  </si>
+  <si>
+    <t>11/11/2016</t>
+  </si>
+  <si>
+    <t>Bad Shower : Failed to follow up as promised</t>
+  </si>
+  <si>
+    <t>This is a newish Courtyard with their new design, which is great for business travelers.  I had stayed here before and had high expectations for an easy stay.  My arrival was at Midnight and I was out by 7:30 AM.  So, all I really wanted was a decent bed (provided) and a good shower (not so much).The shower itself is nice and roomy.  It's not in a tub.  The handle is on the opposite wall from the shower head, which is an excellent design so that you don't get wet turning it on and off.  The problem was that the shower in this room was broken.  It came on to full hot but could not be adjusted or shut off.  A brief, uncomfortable and unsatisfying shower followed.  Things break.  That's not the issue.  How they follow up with it is what's important.  The front desk clerk was indifferent.  She noted that anyone who could do anything about it wasn't there.  I left my contact information and was promised that I would be contacted and have heard nothing.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>This is a newish Courtyard with their new design, which is great for business travelers.  I had stayed here before and had high expectations for an easy stay.  My arrival was at Midnight and I was out by 7:30 AM.  So, all I really wanted was a decent bed (provided) and a good shower (not so much).The shower itself is nice and roomy.  It's not in a tub.  The handle is on the opposite wall from the shower head, which is an excellent design so that you don't get wet turning it on and off.  The problem was that the shower in this room was broken.  It came on to full hot but could not be adjusted or shut off.  A brief, uncomfortable and unsatisfying shower followed.  Things break.  That's not the issue.  How they follow up with it is what's important.  The front desk clerk was indifferent.  She noted that anyone who could do anything about it wasn't there.  I left my contact information and was promised that I would be contacted and have heard nothing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r428419323-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>428419323</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>Recommend</t>
+  </si>
+  <si>
+    <t>Have stayed here twice when attending band competition at the stadium.  Very close! Beautiful rooms with lovely decor. Very large shower in our room. Helpful staff.  Food bar has variety of food.  Starbucks coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Have stayed here twice when attending band competition at the stadium.  Very close! Beautiful rooms with lovely decor. Very large shower in our room. Helpful staff.  Food bar has variety of food.  Starbucks coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r427985916-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>427985916</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>The Big Bass Tour</t>
+  </si>
+  <si>
+    <t>I'm part of a traveling crew that travels all over the Us and puts together fishing tournaments, we had a tournament at Papa's on the Lake this past weekend. My staff and I stayed at this hotel for an entire week during our event. We look for a lot of different qualities when searching for a hotel, for one there are a handful of places to eat at, location was close to where the event was held, the staff was super helpful and accommodating, in fact on a level from 1-10 I wold have to rate this hotel a high 9. Thank you Courtyard Shenandoah and to Laura Marks for making this such a great experience, we will for sure be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm part of a traveling crew that travels all over the Us and puts together fishing tournaments, we had a tournament at Papa's on the Lake this past weekend. My staff and I stayed at this hotel for an entire week during our event. We look for a lot of different qualities when searching for a hotel, for one there are a handful of places to eat at, location was close to where the event was held, the staff was super helpful and accommodating, in fact on a level from 1-10 I wold have to rate this hotel a high 9. Thank you Courtyard Shenandoah and to Laura Marks for making this such a great experience, we will for sure be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r400533867-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>400533867</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>My Wedding</t>
+  </si>
+  <si>
+    <t>We had the most amazing stay after our beautiful wedding. The staff was so friendly, and Misty Thornton, the sales and event coordinator, took care of everything we needed. She set up a beautiful champagne brunch for us the morning after! Thank you for making our wedding that much more special!! ❤️MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2016</t>
+  </si>
+  <si>
+    <t>We had the most amazing stay after our beautiful wedding. The staff was so friendly, and Misty Thornton, the sales and event coordinator, took care of everything we needed. She set up a beautiful champagne brunch for us the morning after! Thank you for making our wedding that much more special!! ❤️More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r387237800-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>387237800</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Perfect Place...Perfect Event</t>
+  </si>
+  <si>
+    <t>I had been searching The Woodlands &amp; surrounding areas for a special place to host my niece's baby shower.  I literally viewed over 15 spaces but the moment I walked into the Courtyard Marriott in Shenandoah, TX, I knew it was the perfect spot. The modern, sleek and contemporary vibe, was just the setting I had been searching for. Misty Thornton, the Event Coordinator, was amazing. She helped me completely materialize my vision. She helped me choose the perfect menu, the perfect set up and all the accommodations I wanted to make the event super special. On the day of the event, her and the great Marriott team did a phenomenal job checking on us before, during and after the shower. Hands down, the team at the hotel did an outstanding job and they indeed made it a perfect event at a truly perfect place.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>luisnazario2004, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2016</t>
+  </si>
+  <si>
+    <t>I had been searching The Woodlands &amp; surrounding areas for a special place to host my niece's baby shower.  I literally viewed over 15 spaces but the moment I walked into the Courtyard Marriott in Shenandoah, TX, I knew it was the perfect spot. The modern, sleek and contemporary vibe, was just the setting I had been searching for. Misty Thornton, the Event Coordinator, was amazing. She helped me completely materialize my vision. She helped me choose the perfect menu, the perfect set up and all the accommodations I wanted to make the event super special. On the day of the event, her and the great Marriott team did a phenomenal job checking on us before, during and after the shower. Hands down, the team at the hotel did an outstanding job and they indeed made it a perfect event at a truly perfect place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r384610575-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>384610575</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Swim Team stayed for a week</t>
+  </si>
+  <si>
+    <t>Don't even know where to start with the compliments!  The hotel was extremely clean, rooms great size, comfortable beds, lobby area fantastic for relaxing every night.  We had pancake breakfast catered by the hotel for the swimmers every morning, and it was delicious and always ready on time.   EVERY staff member we worked with were extremely courteous and professional, going out of their way to accomodate us.  MAJOR thanks to Misty, Jessica, Leah, Laura, and Luis!!!   We will definitely be staying here the next time we are are town for a swim meet!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Don't even know where to start with the compliments!  The hotel was extremely clean, rooms great size, comfortable beds, lobby area fantastic for relaxing every night.  We had pancake breakfast catered by the hotel for the swimmers every morning, and it was delicious and always ready on time.   EVERY staff member we worked with were extremely courteous and professional, going out of their way to accomodate us.  MAJOR thanks to Misty, Jessica, Leah, Laura, and Luis!!!   We will definitely be staying here the next time we are are town for a swim meet!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r374296970-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>374296970</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Great hotel, great location.</t>
+  </si>
+  <si>
+    <t>We came to Houston to see a concert at the Cynthia Woods Mitchell Pavilion.  The hotel was near the venue, very convenient.  There are also plenty of local food options close to the hotel.  It's a nice area of Houston to base your operations out of.The hotel itself was great, staff were friendly.  We traveled with another family and were able to all relax with our kids in the comfortable lounge area.  The sizable pool was also a great diversion for the children.  Rooms were great, clean, nice roomy shower.If we go back to Houston we'll stay at the same hotel it was a great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>luisnazario2004, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded May 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2016</t>
+  </si>
+  <si>
+    <t>We came to Houston to see a concert at the Cynthia Woods Mitchell Pavilion.  The hotel was near the venue, very convenient.  There are also plenty of local food options close to the hotel.  It's a nice area of Houston to base your operations out of.The hotel itself was great, staff were friendly.  We traveled with another family and were able to all relax with our kids in the comfortable lounge area.  The sizable pool was also a great diversion for the children.  Rooms were great, clean, nice roomy shower.If we go back to Houston we'll stay at the same hotel it was a great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r374285026-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>374285026</t>
+  </si>
+  <si>
+    <t>Seperb accommodations</t>
+  </si>
+  <si>
+    <t>We had a weekend trip scheduled last weekend. The accommodations were amazing! The service was incredible! The pool area was very nice for the kids to swim wile being able to visit with friends. The rooms was very comfortable. We will definitely stay at this location again next time we are in this area. I would like to give a shout out to Laura and Louis and thank them for being so accommdating!MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a weekend trip scheduled last weekend. The accommodations were amazing! The service was incredible! The pool area was very nice for the kids to swim wile being able to visit with friends. The rooms was very comfortable. We will definitely stay at this location again next time we are in this area. I would like to give a shout out to Laura and Louis and thank them for being so accommdating!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r373373702-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>373373702</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Annual Nurse Appreciation Dinner</t>
+  </si>
+  <si>
+    <t>We use Courtyard Houston North/Shenandoah for all our corporate meetings and they always do an excellent job.  The most recent meeting was our Annual Nurse Appreciation dinner and Misty was so helpful with our constant changes.  Our nurses enjoyed the rooms and hospitality of the hotel. Excellent service!MoreShow less</t>
+  </si>
+  <si>
+    <t>We use Courtyard Houston North/Shenandoah for all our corporate meetings and they always do an excellent job.  The most recent meeting was our Annual Nurse Appreciation dinner and Misty was so helpful with our constant changes.  Our nurses enjoyed the rooms and hospitality of the hotel. Excellent service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r360506885-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>360506885</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Excellent hotel, and even better staff!!!</t>
+  </si>
+  <si>
+    <t>I have booked several business meetings here, and ongoing weekly meetings with my church group here as well. This hotel has great accommodations, and the staff is even better!  I have come to know them very well, and everyone makes sure that each meeting goes off without a hitch!  Thank you!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>luisnazario2004, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2016</t>
+  </si>
+  <si>
+    <t>I have booked several business meetings here, and ongoing weekly meetings with my church group here as well. This hotel has great accommodations, and the staff is even better!  I have come to know them very well, and everyone makes sure that each meeting goes off without a hitch!  Thank you!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r359864833-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>359864833</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>Fantastic Hotel</t>
+  </si>
+  <si>
+    <t>We rented several rooms for family for a wedding and Misty was very helpful in getting everything set up.  The hotel property is new, clean and very nice. The staff was very friendly.  I would highly recommend this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>luisnazario2004, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded March 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2016</t>
+  </si>
+  <si>
+    <t>We rented several rooms for family for a wedding and Misty was very helpful in getting everything set up.  The hotel property is new, clean and very nice. The staff was very friendly.  I would highly recommend this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r354300686-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>354300686</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>Travelers.......Brand NEW Courtyard!  Decent WiFi.</t>
+  </si>
+  <si>
+    <t>Travelers.......Brand NEW Courtyard!  Decent WiFi.  This is a very new Courtyard and thus is nicely appointed.  The staff last night was outstanding!  The room was really good and the bed was very comfy!  The WiFi, although ok at just 6 mb per sec, was disappointing for a new property......Marriott needs to get it together and upgrade their WiFi speed at their hotels!MoreShow less</t>
+  </si>
+  <si>
+    <t>luisnazario2004, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded March 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2016</t>
+  </si>
+  <si>
+    <t>Travelers.......Brand NEW Courtyard!  Decent WiFi.  This is a very new Courtyard and thus is nicely appointed.  The staff last night was outstanding!  The room was really good and the bed was very comfy!  The WiFi, although ok at just 6 mb per sec, was disappointing for a new property......Marriott needs to get it together and upgrade their WiFi speed at their hotels!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r350081433-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>350081433</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Business meeting an absolute success!</t>
+  </si>
+  <si>
+    <t>We used this facility to conduct a Managers training session.  Everything was perfect.  The staff was very attentive and treated every participant as if they were their personal guest.  We had special requests that were addressed immediately and flawlessly.As an employee at one of Houston Top Workplaces, I can say this hotel have the best hotel staff in our area.  Will continue using this facility and encourage others to do the same.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>luisnazario2004, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded February 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2016</t>
+  </si>
+  <si>
+    <t>We used this facility to conduct a Managers training session.  Everything was perfect.  The staff was very attentive and treated every participant as if they were their personal guest.  We had special requests that were addressed immediately and flawlessly.As an employee at one of Houston Top Workplaces, I can say this hotel have the best hotel staff in our area.  Will continue using this facility and encourage others to do the same.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r348625633-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>348625633</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>So close to everything!</t>
+  </si>
+  <si>
+    <t>I had been staying with other hotel chains, but decided to try Courtyard by Marriott -- and am I glad I did!  For what amounted to a few dollars more, I had a lovely room, with early arrival, excellent WI-FI and a bathroom that fit my 6' 1" frame.  Also my request for extra pillows with honored.  And, one final thing: I LOVE rooms that have "too many" electrical outlets -- and my room handled all my stuff: laptop, smartphone, tablet, and travel alarm with problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>luisnazario2004, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2016</t>
+  </si>
+  <si>
+    <t>I had been staying with other hotel chains, but decided to try Courtyard by Marriott -- and am I glad I did!  For what amounted to a few dollars more, I had a lovely room, with early arrival, excellent WI-FI and a bathroom that fit my 6' 1" frame.  Also my request for extra pillows with honored.  And, one final thing: I LOVE rooms that have "too many" electrical outlets -- and my room handled all my stuff: laptop, smartphone, tablet, and travel alarm with problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r348251095-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>348251095</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Excellent for teams</t>
+  </si>
+  <si>
+    <t>We travel once a month as a competitive soccer team. This was by far the best customer service we have experienced at the hotel. They were well organized and friendly with the players. The rooms were clean, large and the staff was accommodating to all of our needs. I would highly recommend them.MoreShow less</t>
+  </si>
+  <si>
+    <t>luisnazario2004, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2016</t>
+  </si>
+  <si>
+    <t>We travel once a month as a competitive soccer team. This was by far the best customer service we have experienced at the hotel. They were well organized and friendly with the players. The rooms were clean, large and the staff was accommodating to all of our needs. I would highly recommend them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r326114218-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>326114218</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>New and very clean</t>
+  </si>
+  <si>
+    <t>I stayed here This month for five nights. The staff is very friendly and accommodating. I would stay again if in the area.  The restaurant menu is limited but fast and reasonable.  The location is pretty central to the local sites. Say hello to John when checking in!  He is a funny guy.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>luisnazario2004, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded December 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here This month for five nights. The staff is very friendly and accommodating. I would stay again if in the area.  The restaurant menu is limited but fast and reasonable.  The location is pretty central to the local sites. Say hello to John when checking in!  He is a funny guy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r325720738-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>325720738</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>Great place 7 great staff</t>
+  </si>
+  <si>
+    <t>Over on a business trip from the Middle East for 6 days which ended up being 23 days. Staff here are mega helpful and cheery. An unusual find in the modern hotel world. Beds comfy and walk in modern shower room / bathroom very good. Decent stable wifi and plenty of parking. Quiet a/c that actually works. This hotel is spotlessly clean too. Small microwave and refrig in the room. Plenty of room to work with several sockets and usb connections. Small bistro in the lobby area which helps if you don't wish to venture out after a long day. Plenty of restaurants etc very close by and some in walking distance. Breakfast choice is good but can get busy if you hit "rush" hour. Just goes to show if you have a quality product it will get used. Onsite washer/dryers and and a small but modern gym. Pool and outside are looked good but unfortunately it rained for virtualy the whole 23 days.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Over on a business trip from the Middle East for 6 days which ended up being 23 days. Staff here are mega helpful and cheery. An unusual find in the modern hotel world. Beds comfy and walk in modern shower room / bathroom very good. Decent stable wifi and plenty of parking. Quiet a/c that actually works. This hotel is spotlessly clean too. Small microwave and refrig in the room. Plenty of room to work with several sockets and usb connections. Small bistro in the lobby area which helps if you don't wish to venture out after a long day. Plenty of restaurants etc very close by and some in walking distance. Breakfast choice is good but can get busy if you hit "rush" hour. Just goes to show if you have a quality product it will get used. Onsite washer/dryers and and a small but modern gym. Pool and outside are looked good but unfortunately it rained for virtualy the whole 23 days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r324868162-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>324868162</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Finally fast Wi-Fi</t>
+  </si>
+  <si>
+    <t>This is a fairly new Marriott and its decor is a nice change from the typical Marriott courtyard. The staff were friendly, greeted you coming and going. Even joked about us being here next week at a hotel on Friday the 13th. Our anniversary so it's a lucky day in our books. My biggest brag here is finally a Marriott that has their Wi-Fi setup right and managed well. My company installs Ruckus wireless in student housing and its always been a pain to me that a hotel can't get right. I did several speed test and consistently no matter where I was in the building I was getting 5Mbps down and up to 6Mbps up. Finally I can work from my room or watch Netflix or Hulu while on the road!!!! Thank you, you are now our first choice for a Marriott brand when here on business. MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a fairly new Marriott and its decor is a nice change from the typical Marriott courtyard. The staff were friendly, greeted you coming and going. Even joked about us being here next week at a hotel on Friday the 13th. Our anniversary so it's a lucky day in our books. My biggest brag here is finally a Marriott that has their Wi-Fi setup right and managed well. My company installs Ruckus wireless in student housing and its always been a pain to me that a hotel can't get right. I did several speed test and consistently no matter where I was in the building I was getting 5Mbps down and up to 6Mbps up. Finally I can work from my room or watch Netflix or Hulu while on the road!!!! Thank you, you are now our first choice for a Marriott brand when here on business. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r320362385-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>320362385</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Awesome Place and staff</t>
+  </si>
+  <si>
+    <t>By far, one of the better hotels I've stayed at on my business travels. The staff goes above and beyond to make your stay as pleasant as being at home. The desk clerk, Paige, is one of the friendliest people I've encountered, and knows the meaning of old school customer service. She is always smiling, and has an electric personality that makes  you feel welcome.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r299857740-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>299857740</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Very Pleased!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location close to I-94, but tucked far enough away with quiet and peaceful surroundings from the traffic noise. The area is clean and safe. Parking lot is well lit at night. Plenty of food options in the area too. The hotel was extremely clean and we enjoyed the breakfast options. Wifi was some of the fastest I've had in a Hotel room. Staff was professional and helpful. Would definitely stay here again. </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r296945790-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>296945790</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Brand New.  Great Stay!</t>
+  </si>
+  <si>
+    <t>This place is a gem!   It's brand new, and features their newest design.    Rooms are large and still have that new smell.     Hotel is not yet discovered....so prices are low and sevice is great!    It has a large pool, which was heaven at the end of the business day.  Had my wife with me, and she loved it too.  Highly recommend!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r289983896-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>289983896</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>Clean and quiet hotel</t>
+  </si>
+  <si>
+    <t>Located in a business park, so at night, there's very little traffic around it.  It's about a block off the  I45 Freeway, so noise from the freeway is very negligible.  Room to room noise was also negligible.Check in was easy. Hotel was very clean.  Rooms and common areas look new, but I think the hotel is a few years old.Breakfast area was clean.  Hot breakfast consisting of eggs, sausage, toast, cereals, fresh bananas, apples and oranges, fruit juices, coffee etc.Room had a small cook top, sink and refrigerator.  In room coffee pot was easy to operate.  Coffee was good!  There were two packets of regular coffee and two decaf.  I walked the two decaf down to the front desk and asked if I could swap them for two regular coffee.  Desk attendant said, "We don't have any of that down here."  I asked, "You don't have any coffee?"  Her reply was a simple "No".  OK, well, minor setback.  I drank the decaf at night and saved the regular for morning.Check out was easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad L, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded July 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2015</t>
+  </si>
+  <si>
+    <t>Located in a business park, so at night, there's very little traffic around it.  It's about a block off the  I45 Freeway, so noise from the freeway is very negligible.  Room to room noise was also negligible.Check in was easy. Hotel was very clean.  Rooms and common areas look new, but I think the hotel is a few years old.Breakfast area was clean.  Hot breakfast consisting of eggs, sausage, toast, cereals, fresh bananas, apples and oranges, fruit juices, coffee etc.Room had a small cook top, sink and refrigerator.  In room coffee pot was easy to operate.  Coffee was good!  There were two packets of regular coffee and two decaf.  I walked the two decaf down to the front desk and asked if I could swap them for two regular coffee.  Desk attendant said, "We don't have any of that down here."  I asked, "You don't have any coffee?"  Her reply was a simple "No".  OK, well, minor setback.  I drank the decaf at night and saved the regular for morning.Check out was easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r288575496-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>288575496</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Perfect choice for Mother/Daughter weekend!</t>
+  </si>
+  <si>
+    <t>This new Courtyard by Marriott is decorated in a modern, contemporary motif.  Clean, quiet (located behind a Home Depot on a street not heavily traveled).  Had a Mother/Daughter weekend.....daughter is due with our grandson in 1 week so we were wanting to spend some quiet time together. The Front Desk was manned by Emily, who went out of her way to make sure we had the nicest room overlooking the pool.  Over the weekend she always greeted us by name!  All of the staff were so friendly!  This hotel is close to I-45 (one street off) and close to ALL of the shopping in The Woodlands, the popular area for shopping.  I mean, literally 5 minutes max and you're either at the Mall, or strip centers containing any store you happen to be looking for.  Also close to Market Street, where art/craft exhibits take place almost every weekend. Close to the Cynthia Woods Pavillion.  ANY type of food can be found in this area.  Highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>This new Courtyard by Marriott is decorated in a modern, contemporary motif.  Clean, quiet (located behind a Home Depot on a street not heavily traveled).  Had a Mother/Daughter weekend.....daughter is due with our grandson in 1 week so we were wanting to spend some quiet time together. The Front Desk was manned by Emily, who went out of her way to make sure we had the nicest room overlooking the pool.  Over the weekend she always greeted us by name!  All of the staff were so friendly!  This hotel is close to I-45 (one street off) and close to ALL of the shopping in The Woodlands, the popular area for shopping.  I mean, literally 5 minutes max and you're either at the Mall, or strip centers containing any store you happen to be looking for.  Also close to Market Street, where art/craft exhibits take place almost every weekend. Close to the Cynthia Woods Pavillion.  ANY type of food can be found in this area.  Highly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r286954225-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>286954225</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Welcoming propert</t>
+  </si>
+  <si>
+    <t>This is a new property that is perfect in every way. It's sparkling clean and the staff is Texas friendly. They learned my name right away and used it the several days I stayed. It's nicely decorated. I'll be back here when I'm in this area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a new property that is perfect in every way. It's sparkling clean and the staff is Texas friendly. They learned my name right away and used it the several days I stayed. It's nicely decorated. I'll be back here when I'm in this area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r277251244-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>277251244</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second visit </t>
+  </si>
+  <si>
+    <t>Consistently friendly and courteous staff. I love how I'm greatest when I arrive. The hotel is clean and had a great vibe. With weekly travel for business friendly people are so very important to me. I also love the makeup mirror. Little things do matter MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Consistently friendly and courteous staff. I love how I'm greatest when I arrive. The hotel is clean and had a great vibe. With weekly travel for business friendly people are so very important to me. I also love the makeup mirror. Little things do matter More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r273094135-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>273094135</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Clean new hotel</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and modern.  Room contained microwave and small frig.  Bathroom was good size for hotel room with a walk in shower without doors or curtains.  Close to many Houston north end activities and facilities.  Personnel were friendly and helpful.  Front desk may have been a little understaffed.  Would stay here again when in the North Houston/Conroe area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and modern.  Room contained microwave and small frig.  Bathroom was good size for hotel room with a walk in shower without doors or curtains.  Close to many Houston north end activities and facilities.  Personnel were friendly and helpful.  Front desk may have been a little understaffed.  Would stay here again when in the North Houston/Conroe area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r272536817-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>272536817</t>
+  </si>
+  <si>
+    <t>05/17/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel terrible service!</t>
+  </si>
+  <si>
+    <t>Brand new really nice hotel! We stayed for the ironman. Our room was never cleaned not a big deal about making beds etc. was never given fresh towels and our trash was overflowing and never taken out! No room service which I think is ridiculous for the amount you pay for this hotel. Also they closed the bistro at 9:57am. Which was a couple of people from ironman and most didn't get in until midnight. So of course wanted to sleep and takes a while to get moving after something like that. I'm very disappointed in this hotel!!!! Very nice hotel but the service sucks!MoreShow less</t>
+  </si>
+  <si>
+    <t>BLIsrael, Public Relations Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Brand new really nice hotel! We stayed for the ironman. Our room was never cleaned not a big deal about making beds etc. was never given fresh towels and our trash was overflowing and never taken out! No room service which I think is ridiculous for the amount you pay for this hotel. Also they closed the bistro at 9:57am. Which was a couple of people from ironman and most didn't get in until midnight. So of course wanted to sleep and takes a while to get moving after something like that. I'm very disappointed in this hotel!!!! Very nice hotel but the service sucks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r266842857-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>266842857</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Week-end excellent from the time we walked through the door. No waiting, no waiting on elevator! We had a wonderful time</t>
+  </si>
+  <si>
+    <t>We had excellent service in the room and in the Bristol! Plan ahead and they accommodated us like we have never been treated. I highly recommend this hotel, in the future this is the only hotel we will stay in.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>BLIsrael, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded April 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2015</t>
+  </si>
+  <si>
+    <t>We had excellent service in the room and in the Bristol! Plan ahead and they accommodated us like we have never been treated. I highly recommend this hotel, in the future this is the only hotel we will stay in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r261643033-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>261643033</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Wonderful Staff</t>
+  </si>
+  <si>
+    <t>Let me start by saying this is a brand new Courtyard  and the new style looks clean, sharp.  The showers have rain shower heads are great and adjustable and the showers themselves no tubs or curtains .. just angled right plenty of room terrific .. the beds are awesome.  The workspace is and TV are very well designed.  The staff is terrific they go out of their way to handle anything that comes to make sure you are completely happy with your stay.The only downside for me is not enough drawer space , I like to unpack completely to make it feel more home like .. I know a lot of business travelers do not do that but I do .. so I would add more drawer or shelve space so someone could unpack their suitcase completely ...MoreShow less</t>
+  </si>
+  <si>
+    <t>BLIsrael, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded April 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2015</t>
+  </si>
+  <si>
+    <t>Let me start by saying this is a brand new Courtyard  and the new style looks clean, sharp.  The showers have rain shower heads are great and adjustable and the showers themselves no tubs or curtains .. just angled right plenty of room terrific .. the beds are awesome.  The workspace is and TV are very well designed.  The staff is terrific they go out of their way to handle anything that comes to make sure you are completely happy with your stay.The only downside for me is not enough drawer space , I like to unpack completely to make it feel more home like .. I know a lot of business travelers do not do that but I do .. so I would add more drawer or shelve space so someone could unpack their suitcase completely ...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r258850840-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>258850840</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Nice (but small) and super close to the nat/stadium</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel this past weekend while attending a swim meet.  The location of this hotel cannot be beaten.  It is literally less than a mile from the natatorium/football stadium which is fantastic when you have to be at the pool at 6:45 AM.  We stayed in 2 different room types during our stay.  I'll start with the king room.  This may be one of the smallest hotel rooms I have ever stayed in.  It is TINY!!!!  The bathroom is very odd.  It has a shower only and the shower has no door.  It is very long with a weird open space to enter and exit.  It's bizarre......and drafty.  The bathroom has almost no storage area for your toiletries.  The plus side.......the room had a fridge and a microwave!  It also had a ton of plugs and multiple USB outlets.  Very convenient.  Overall the room was clean and it served it's purpose but it was definitely a tight squeeze!!!  We stored one of our suitcases behind the pull our couch because there was just no room for it anywhere else!  Our last night we moved to the room with 2 queens.  MUCH bigger.  Much more the size of a traditional hotel room.  It also has a tub, which I much preferred to the weird shower in the other room.  The staff at the hotel were all friendly and helpful.  My only issue was that when I needed quarters...We stayed at this hotel this past weekend while attending a swim meet.  The location of this hotel cannot be beaten.  It is literally less than a mile from the natatorium/football stadium which is fantastic when you have to be at the pool at 6:45 AM.  We stayed in 2 different room types during our stay.  I'll start with the king room.  This may be one of the smallest hotel rooms I have ever stayed in.  It is TINY!!!!  The bathroom is very odd.  It has a shower only and the shower has no door.  It is very long with a weird open space to enter and exit.  It's bizarre......and drafty.  The bathroom has almost no storage area for your toiletries.  The plus side.......the room had a fridge and a microwave!  It also had a ton of plugs and multiple USB outlets.  Very convenient.  Overall the room was clean and it served it's purpose but it was definitely a tight squeeze!!!  We stored one of our suitcases behind the pull our couch because there was just no room for it anywhere else!  Our last night we moved to the room with 2 queens.  MUCH bigger.  Much more the size of a traditional hotel room.  It also has a tub, which I much preferred to the weird shower in the other room.  The staff at the hotel were all friendly and helpful.  My only issue was that when I needed quarters for the dryer, they had none.  There are big events at the Conroe Natatorium almost every weekend!  They need a change machine so that swim families can dry their millions of wet towels every night or in between prelims and finals.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel this past weekend while attending a swim meet.  The location of this hotel cannot be beaten.  It is literally less than a mile from the natatorium/football stadium which is fantastic when you have to be at the pool at 6:45 AM.  We stayed in 2 different room types during our stay.  I'll start with the king room.  This may be one of the smallest hotel rooms I have ever stayed in.  It is TINY!!!!  The bathroom is very odd.  It has a shower only and the shower has no door.  It is very long with a weird open space to enter and exit.  It's bizarre......and drafty.  The bathroom has almost no storage area for your toiletries.  The plus side.......the room had a fridge and a microwave!  It also had a ton of plugs and multiple USB outlets.  Very convenient.  Overall the room was clean and it served it's purpose but it was definitely a tight squeeze!!!  We stored one of our suitcases behind the pull our couch because there was just no room for it anywhere else!  Our last night we moved to the room with 2 queens.  MUCH bigger.  Much more the size of a traditional hotel room.  It also has a tub, which I much preferred to the weird shower in the other room.  The staff at the hotel were all friendly and helpful.  My only issue was that when I needed quarters...We stayed at this hotel this past weekend while attending a swim meet.  The location of this hotel cannot be beaten.  It is literally less than a mile from the natatorium/football stadium which is fantastic when you have to be at the pool at 6:45 AM.  We stayed in 2 different room types during our stay.  I'll start with the king room.  This may be one of the smallest hotel rooms I have ever stayed in.  It is TINY!!!!  The bathroom is very odd.  It has a shower only and the shower has no door.  It is very long with a weird open space to enter and exit.  It's bizarre......and drafty.  The bathroom has almost no storage area for your toiletries.  The plus side.......the room had a fridge and a microwave!  It also had a ton of plugs and multiple USB outlets.  Very convenient.  Overall the room was clean and it served it's purpose but it was definitely a tight squeeze!!!  We stored one of our suitcases behind the pull our couch because there was just no room for it anywhere else!  Our last night we moved to the room with 2 queens.  MUCH bigger.  Much more the size of a traditional hotel room.  It also has a tub, which I much preferred to the weird shower in the other room.  The staff at the hotel were all friendly and helpful.  My only issue was that when I needed quarters for the dryer, they had none.  There are big events at the Conroe Natatorium almost every weekend!  They need a change machine so that swim families can dry their millions of wet towels every night or in between prelims and finals.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r253565871-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>253565871</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Nothing spectacular here.  I have had better stays in lower priced hotels.  The amenities leave a lot to be desired.  I simply was not impressed by anything at this location.  I was expecting better from Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>BLIsrael, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded February 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2015</t>
+  </si>
+  <si>
+    <t>Nothing spectacular here.  I have had better stays in lower priced hotels.  The amenities leave a lot to be desired.  I simply was not impressed by anything at this location.  I was expecting better from Marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r251711085-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>251711085</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>For a new hotel, there are better options</t>
+  </si>
+  <si>
+    <t>Nice new hotel with lots of dinner options in the area.
+Breakfast starts at 6 AM in the Bistro, but you can get Starbucks coffee starting at 5 AM during the weekdays.  If you want an awesome breakfast with some of the best coffee in town, head over to Another Broken Egg, just around the corner within walking distance.  They open up for Breakfast and Bloody Marys at 7 AM.
+I Stayed here on business for 3 nights in January 2015.  The hotels in The Woodlands area are really jacking up the price.  For $200 a night, I expect more in a new Marriott property.
+The rooms are nice, each with a small fridge and microwave oven, but for the business traveler, the work area is a bit small and the TV is literally inches from your face.  You can feel the heat from the screen and this setup is simply wrong if you want to work and listen to TV news or what not.  See my pic.  The bathroom and shower are roomy and well lit.  The workout room has free weight dumbbells and one bench, several treadmills, and one recumbent cycle for workouts.
+My first night was terrible as each bed (I was stuck with 2 queens) had nothing but very large and very firm foam rubber pillows, so my neck was at an uncomfortable angle when sleeping on my side.  The next day, I asked for and...Nice new hotel with lots of dinner options in the area.Breakfast starts at 6 AM in the Bistro, but you can get Starbucks coffee starting at 5 AM during the weekdays.  If you want an awesome breakfast with some of the best coffee in town, head over to Another Broken Egg, just around the corner within walking distance.  They open up for Breakfast and Bloody Marys at 7 AM.I Stayed here on business for 3 nights in January 2015.  The hotels in The Woodlands area are really jacking up the price.  For $200 a night, I expect more in a new Marriott property.The rooms are nice, each with a small fridge and microwave oven, but for the business traveler, the work area is a bit small and the TV is literally inches from your face.  You can feel the heat from the screen and this setup is simply wrong if you want to work and listen to TV news or what not.  See my pic.  The bathroom and shower are roomy and well lit.  The workout room has free weight dumbbells and one bench, several treadmills, and one recumbent cycle for workouts.My first night was terrible as each bed (I was stuck with 2 queens) had nothing but very large and very firm foam rubber pillows, so my neck was at an uncomfortable angle when sleeping on my side.  The next day, I asked for and received 2 feather pillows.  Too bad they did not pay attention to my Marriott Platinum profile requesting feather pillows.  Be sure to try the pillows to see if they are too large &amp; firm for a good nights rest before you hit they hay.The next morning, I was awakened by the noise of showers in adjacent rooms, either above or next my room.  The soundproofing is pretty poor.If you like a quiet evening, get an even numbered room so you are not facing the pool and patio since just 4 people can make a racket that is disruptive.  A whole bunch will make a bigger racket to the point where you will have to turn up the TV just to hear it.  This noise went on till midnight when I called down to the front desk to complain.Bottom line for the business traveler, the SpringHill Suites just couple miles north on I-45 provides a better business environment, free hot breakfast, and quiet rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>BLIsrael, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded February 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2015</t>
+  </si>
+  <si>
+    <t>Nice new hotel with lots of dinner options in the area.
+Breakfast starts at 6 AM in the Bistro, but you can get Starbucks coffee starting at 5 AM during the weekdays.  If you want an awesome breakfast with some of the best coffee in town, head over to Another Broken Egg, just around the corner within walking distance.  They open up for Breakfast and Bloody Marys at 7 AM.
+I Stayed here on business for 3 nights in January 2015.  The hotels in The Woodlands area are really jacking up the price.  For $200 a night, I expect more in a new Marriott property.
+The rooms are nice, each with a small fridge and microwave oven, but for the business traveler, the work area is a bit small and the TV is literally inches from your face.  You can feel the heat from the screen and this setup is simply wrong if you want to work and listen to TV news or what not.  See my pic.  The bathroom and shower are roomy and well lit.  The workout room has free weight dumbbells and one bench, several treadmills, and one recumbent cycle for workouts.
+My first night was terrible as each bed (I was stuck with 2 queens) had nothing but very large and very firm foam rubber pillows, so my neck was at an uncomfortable angle when sleeping on my side.  The next day, I asked for and...Nice new hotel with lots of dinner options in the area.Breakfast starts at 6 AM in the Bistro, but you can get Starbucks coffee starting at 5 AM during the weekdays.  If you want an awesome breakfast with some of the best coffee in town, head over to Another Broken Egg, just around the corner within walking distance.  They open up for Breakfast and Bloody Marys at 7 AM.I Stayed here on business for 3 nights in January 2015.  The hotels in The Woodlands area are really jacking up the price.  For $200 a night, I expect more in a new Marriott property.The rooms are nice, each with a small fridge and microwave oven, but for the business traveler, the work area is a bit small and the TV is literally inches from your face.  You can feel the heat from the screen and this setup is simply wrong if you want to work and listen to TV news or what not.  See my pic.  The bathroom and shower are roomy and well lit.  The workout room has free weight dumbbells and one bench, several treadmills, and one recumbent cycle for workouts.My first night was terrible as each bed (I was stuck with 2 queens) had nothing but very large and very firm foam rubber pillows, so my neck was at an uncomfortable angle when sleeping on my side.  The next day, I asked for and received 2 feather pillows.  Too bad they did not pay attention to my Marriott Platinum profile requesting feather pillows.  Be sure to try the pillows to see if they are too large &amp; firm for a good nights rest before you hit they hay.The next morning, I was awakened by the noise of showers in adjacent rooms, either above or next my room.  The soundproofing is pretty poor.If you like a quiet evening, get an even numbered room so you are not facing the pool and patio since just 4 people can make a racket that is disruptive.  A whole bunch will make a bigger racket to the point where you will have to turn up the TV just to hear it.  This noise went on till midnight when I called down to the front desk to complain.Bottom line for the business traveler, the SpringHill Suites just couple miles north on I-45 provides a better business environment, free hot breakfast, and quiet rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r251542317-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>251542317</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>OH MY those pillows!!!</t>
+  </si>
+  <si>
+    <t>My husband and I arrived late evening for a business trip. The customer service was excellent!! Everyone, including housekeeping and maintenance greeted us with smiles and a hello!The room was beyond comfortable. After a long day of meetings the shower was awesome. The lighting is superb for applying make up. The pillows....your head literally sinks into clouds of softened cotton. The bed is firm yet soft. The sheets caccoon your body as you sleep in waves of softness. Bottom line it was hard to leave without the entire room in my suv!!! LolEasy access to upscale, taverns,and family dining. The mall is a couple of exits up the highway.I will definitely recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I arrived late evening for a business trip. The customer service was excellent!! Everyone, including housekeeping and maintenance greeted us with smiles and a hello!The room was beyond comfortable. After a long day of meetings the shower was awesome. The lighting is superb for applying make up. The pillows....your head literally sinks into clouds of softened cotton. The bed is firm yet soft. The sheets caccoon your body as you sleep in waves of softness. Bottom line it was hard to leave without the entire room in my suv!!! LolEasy access to upscale, taverns,and family dining. The mall is a couple of exits up the highway.I will definitely recommend.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1749,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1781,3324 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>121</v>
+      </c>
+      <c r="X10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>152</v>
+      </c>
+      <c r="O14" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>153</v>
+      </c>
+      <c r="X14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>161</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>162</v>
+      </c>
+      <c r="X15" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" t="s">
+        <v>168</v>
+      </c>
+      <c r="L16" t="s">
+        <v>169</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>161</v>
+      </c>
+      <c r="O16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>162</v>
+      </c>
+      <c r="X16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" t="s">
+        <v>175</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>176</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>177</v>
+      </c>
+      <c r="X17" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s">
+        <v>184</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>185</v>
+      </c>
+      <c r="O18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>186</v>
+      </c>
+      <c r="X18" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>194</v>
+      </c>
+      <c r="X19" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s">
+        <v>201</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>202</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>203</v>
+      </c>
+      <c r="X20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>212</v>
+      </c>
+      <c r="X21" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" t="s">
+        <v>219</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>212</v>
+      </c>
+      <c r="X22" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>226</v>
+      </c>
+      <c r="O23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>227</v>
+      </c>
+      <c r="X23" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>235</v>
+      </c>
+      <c r="O24" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>236</v>
+      </c>
+      <c r="X24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" t="s">
+        <v>241</v>
+      </c>
+      <c r="K25" t="s">
+        <v>242</v>
+      </c>
+      <c r="L25" t="s">
+        <v>243</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>235</v>
+      </c>
+      <c r="O25" t="s">
+        <v>244</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>236</v>
+      </c>
+      <c r="X25" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>252</v>
+      </c>
+      <c r="X26" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" t="s">
+        <v>248</v>
+      </c>
+      <c r="K27" t="s">
+        <v>257</v>
+      </c>
+      <c r="L27" t="s">
+        <v>258</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>251</v>
+      </c>
+      <c r="O27" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>252</v>
+      </c>
+      <c r="X27" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>261</v>
+      </c>
+      <c r="J28" t="s">
+        <v>262</v>
+      </c>
+      <c r="K28" t="s">
+        <v>263</v>
+      </c>
+      <c r="L28" t="s">
+        <v>264</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>251</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>252</v>
+      </c>
+      <c r="X28" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J29" t="s">
+        <v>268</v>
+      </c>
+      <c r="K29" t="s">
+        <v>269</v>
+      </c>
+      <c r="L29" t="s">
+        <v>270</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>271</v>
+      </c>
+      <c r="X29" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>274</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>275</v>
+      </c>
+      <c r="J30" t="s">
+        <v>276</v>
+      </c>
+      <c r="K30" t="s">
+        <v>277</v>
+      </c>
+      <c r="L30" t="s">
+        <v>278</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>279</v>
+      </c>
+      <c r="O30" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>280</v>
+      </c>
+      <c r="X30" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>283</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>284</v>
+      </c>
+      <c r="J31" t="s">
+        <v>285</v>
+      </c>
+      <c r="K31" t="s">
+        <v>286</v>
+      </c>
+      <c r="L31" t="s">
+        <v>287</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>279</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>288</v>
+      </c>
+      <c r="X31" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>291</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>292</v>
+      </c>
+      <c r="J32" t="s">
+        <v>293</v>
+      </c>
+      <c r="K32" t="s">
+        <v>294</v>
+      </c>
+      <c r="L32" t="s">
+        <v>295</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>296</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>297</v>
+      </c>
+      <c r="X32" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>300</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>301</v>
+      </c>
+      <c r="J33" t="s">
+        <v>302</v>
+      </c>
+      <c r="K33" t="s">
+        <v>303</v>
+      </c>
+      <c r="L33" t="s">
+        <v>304</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>296</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>305</v>
+      </c>
+      <c r="X33" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>309</v>
+      </c>
+      <c r="J34" t="s">
+        <v>310</v>
+      </c>
+      <c r="K34" t="s">
+        <v>311</v>
+      </c>
+      <c r="L34" t="s">
+        <v>312</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>296</v>
+      </c>
+      <c r="O34" t="s">
+        <v>244</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>313</v>
+      </c>
+      <c r="X34" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>316</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>317</v>
+      </c>
+      <c r="J35" t="s">
+        <v>318</v>
+      </c>
+      <c r="K35" t="s">
+        <v>319</v>
+      </c>
+      <c r="L35" t="s">
+        <v>320</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>321</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>322</v>
+      </c>
+      <c r="X35" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>326</v>
+      </c>
+      <c r="J36" t="s">
+        <v>327</v>
+      </c>
+      <c r="K36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L36" t="s">
+        <v>329</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>330</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>322</v>
+      </c>
+      <c r="X36" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>332</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>333</v>
+      </c>
+      <c r="J37" t="s">
+        <v>334</v>
+      </c>
+      <c r="K37" t="s">
+        <v>335</v>
+      </c>
+      <c r="L37" t="s">
+        <v>336</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>321</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>322</v>
+      </c>
+      <c r="X37" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>338</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>339</v>
+      </c>
+      <c r="J38" t="s">
+        <v>340</v>
+      </c>
+      <c r="K38" t="s">
+        <v>341</v>
+      </c>
+      <c r="L38" t="s">
+        <v>342</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>330</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>343</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>344</v>
+      </c>
+      <c r="J39" t="s">
+        <v>345</v>
+      </c>
+      <c r="K39" t="s">
+        <v>346</v>
+      </c>
+      <c r="L39" t="s">
+        <v>347</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>348</v>
+      </c>
+      <c r="O39" t="s">
+        <v>94</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>349</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>350</v>
+      </c>
+      <c r="J40" t="s">
+        <v>351</v>
+      </c>
+      <c r="K40" t="s">
+        <v>352</v>
+      </c>
+      <c r="L40" t="s">
+        <v>353</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>354</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>355</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>356</v>
+      </c>
+      <c r="J41" t="s">
+        <v>357</v>
+      </c>
+      <c r="K41" t="s">
+        <v>358</v>
+      </c>
+      <c r="L41" t="s">
+        <v>359</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>348</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>360</v>
+      </c>
+      <c r="X41" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>363</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>364</v>
+      </c>
+      <c r="J42" t="s">
+        <v>365</v>
+      </c>
+      <c r="K42" t="s">
+        <v>366</v>
+      </c>
+      <c r="L42" t="s">
+        <v>367</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>348</v>
+      </c>
+      <c r="O42" t="s">
+        <v>69</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>360</v>
+      </c>
+      <c r="X42" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>369</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>370</v>
+      </c>
+      <c r="J43" t="s">
+        <v>371</v>
+      </c>
+      <c r="K43" t="s">
+        <v>372</v>
+      </c>
+      <c r="L43" t="s">
+        <v>373</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>348</v>
+      </c>
+      <c r="O43" t="s">
+        <v>69</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>360</v>
+      </c>
+      <c r="X43" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>375</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>376</v>
+      </c>
+      <c r="J44" t="s">
+        <v>377</v>
+      </c>
+      <c r="K44" t="s">
+        <v>378</v>
+      </c>
+      <c r="L44" t="s">
+        <v>379</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>380</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>360</v>
+      </c>
+      <c r="X44" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>382</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>383</v>
+      </c>
+      <c r="J45" t="s">
+        <v>384</v>
+      </c>
+      <c r="K45" t="s">
+        <v>385</v>
+      </c>
+      <c r="L45" t="s">
+        <v>386</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>387</v>
+      </c>
+      <c r="O45" t="s">
+        <v>69</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>360</v>
+      </c>
+      <c r="X45" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>389</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>390</v>
+      </c>
+      <c r="J46" t="s">
+        <v>391</v>
+      </c>
+      <c r="K46" t="s">
+        <v>392</v>
+      </c>
+      <c r="L46" t="s">
+        <v>393</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>387</v>
+      </c>
+      <c r="O46" t="s">
+        <v>69</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>394</v>
+      </c>
+      <c r="X46" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>397</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>398</v>
+      </c>
+      <c r="J47" t="s">
+        <v>399</v>
+      </c>
+      <c r="K47" t="s">
+        <v>400</v>
+      </c>
+      <c r="L47" t="s">
+        <v>401</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>402</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>403</v>
+      </c>
+      <c r="X47" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>406</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>407</v>
+      </c>
+      <c r="J48" t="s">
+        <v>408</v>
+      </c>
+      <c r="K48" t="s">
+        <v>409</v>
+      </c>
+      <c r="L48" t="s">
+        <v>410</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>402</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>411</v>
+      </c>
+      <c r="X48" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>414</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J49" t="s">
+        <v>416</v>
+      </c>
+      <c r="K49" t="s">
+        <v>417</v>
+      </c>
+      <c r="L49" t="s">
+        <v>418</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>402</v>
+      </c>
+      <c r="O49" t="s">
+        <v>69</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>411</v>
+      </c>
+      <c r="X49" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>420</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>421</v>
+      </c>
+      <c r="J50" t="s">
+        <v>422</v>
+      </c>
+      <c r="K50" t="s">
+        <v>423</v>
+      </c>
+      <c r="L50" t="s">
+        <v>424</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>425</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>426</v>
+      </c>
+      <c r="X50" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>429</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>430</v>
+      </c>
+      <c r="J51" t="s">
+        <v>431</v>
+      </c>
+      <c r="K51" t="s">
+        <v>432</v>
+      </c>
+      <c r="L51" t="s">
+        <v>433</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>434</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>435</v>
+      </c>
+      <c r="X51" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>438</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>439</v>
+      </c>
+      <c r="J52" t="s">
+        <v>440</v>
+      </c>
+      <c r="K52" t="s">
+        <v>441</v>
+      </c>
+      <c r="L52" t="s">
+        <v>442</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>434</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>435</v>
+      </c>
+      <c r="X52" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_149.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_149.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="712">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,102 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/08/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r608614783-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>1009393</t>
+  </si>
+  <si>
+    <t>6956306</t>
+  </si>
+  <si>
+    <t>608614783</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>We will be returning to this hotel EVERY TIME we come to the Houston/Woodlands area!!!</t>
+  </si>
+  <si>
+    <t>I am so impressed with the customer service, cleanliness, management, and staff at this hotel that they have won me over ten fold. I've stayed at a lot of hotels though this hotel is by far the best **hands down** Leah greeted me with a smile and was super friendly making me feel like I was aVIP and I haven't even checked in yet. Lawren was quite helpful and assisted me with my every need. George went above and beyond to assist me and I have never been met with a more friendly staff. The Barista girls were exceptionally pleasant and made good conversation. The cleaning staff was on point and the overall upkeep of the place was astounding. I am very impressed with how clean the grounds and the pool was so a big thanks to the engineering team!!! I look forward to staying here again in the future!!! Respectfully, Mr. H.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I am so impressed with the customer service, cleanliness, management, and staff at this hotel that they have won me over ten fold. I've stayed at a lot of hotels though this hotel is by far the best **hands down** Leah greeted me with a smile and was super friendly making me feel like I was aVIP and I haven't even checked in yet. Lawren was quite helpful and assisted me with my every need. George went above and beyond to assist me and I have never been met with a more friendly staff. The Barista girls were exceptionally pleasant and made good conversation. The cleaning staff was on point and the overall upkeep of the place was astounding. I am very impressed with how clean the grounds and the pool was so a big thanks to the engineering team!!! I look forward to staying here again in the future!!! Respectfully, Mr. H.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r589966838-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>589966838</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Traveliers, this is a newer Courtyard, very nice with Great Wi Fi Speed!</t>
+  </si>
+  <si>
+    <t>Traveliers, this is a newer Courtyard, very nice with Great Wi Fi Speed! Again, this is a newer and nicely appointed Courtyard. The bed was very comfy and so were the pillows. The TV selection is OK, not great but ok. Only problem was with the AC unit.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Shanda M, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Traveliers, this is a newer Courtyard, very nice with Great Wi Fi Speed! Again, this is a newer and nicely appointed Courtyard. The bed was very comfy and so were the pillows. The TV selection is OK, not great but ok. Only problem was with the AC unit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r581694528-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>581694528</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here three nights for the Dave Matthews Band concert at Cynthia Mitchell Woods Pavilion. Everyone was so friendly and helpful, and the room was super clean and new. One of the managers (I think he was a manager) really stood out - he not only gave us tips on what to do in the area, but he also brought me another pillow to try when the ones on the bed were too fluffy. The front desk staff was also great. I would definitely stay here again if in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Shanda M, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here three nights for the Dave Matthews Band concert at Cynthia Mitchell Woods Pavilion. Everyone was so friendly and helpful, and the room was super clean and new. One of the managers (I think he was a manager) really stood out - he not only gave us tips on what to do in the area, but he also brought me another pillow to try when the ones on the bed were too fluffy. The front desk staff was also great. I would definitely stay here again if in the area. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r571729894-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
-    <t>1009393</t>
-  </si>
-  <si>
-    <t>6956306</t>
-  </si>
-  <si>
     <t>571729894</t>
   </si>
   <si>
@@ -177,15 +261,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Shanda M, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded May 22, 2018</t>
-  </si>
-  <si>
-    <t>Responded May 22, 2018</t>
-  </si>
-  <si>
     <t>Beautiful hotel, great location, always clean and the staff is so helpful and kind. Our church uses the conference rooms often and our experiences with them have been nothing but excellent. I highly recommend them!More</t>
   </si>
   <si>
@@ -225,12 +300,66 @@
     <t>this is a new, modern hotel. it is walking distance to the football stadium and the pool. there are restaurants and shopping areas close by. The staffs are friendly and helpful. Laundry machines are new and clean.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>this is a new, modern hotel. it is walking distance to the football stadium and the pool. there are restaurants and shopping areas close by. The staffs are friendly and helpful. Laundry machines are new and clean.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r552489179-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>552489179</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>Team Event Plans?  Look No Further!!</t>
+  </si>
+  <si>
+    <t>We recently completed a high school soccer tournament in the area and stayed here.  The hotel is so easy to work with!  Laura and the whole staff are amazing, and the event with all the rooms, plus breakfast and meeting space went off without a hitch!  We'll definitely be back next year!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Shanda M, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>We recently completed a high school soccer tournament in the area and stayed here.  The hotel is so easy to work with!  Laura and the whole staff are amazing, and the event with all the rooms, plus breakfast and meeting space went off without a hitch!  We'll definitely be back next year!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r549534244-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>549534244</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Best hotel stay we've had in a while</t>
+  </si>
+  <si>
+    <t>Love the modern decor.  The staff at front desk &amp; restaurant were very friendly &amp; accommodating.  Room was clean and comfortable.  So nice to have electrical outlets conveniently located and operable ... if you've ever stayed at an older hotel you know what I mean!  Wish our stay had been longer, but we had to join and stay with family during the holidays.  Will definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Shanda M, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded December 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2017</t>
+  </si>
+  <si>
+    <t>Love the modern decor.  The staff at front desk &amp; restaurant were very friendly &amp; accommodating.  Room was clean and comfortable.  So nice to have electrical outlets conveniently located and operable ... if you've ever stayed at an older hotel you know what I mean!  Wish our stay had been longer, but we had to join and stay with family during the holidays.  Will definitely return.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r545613293-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -246,9 +375,6 @@
     <t>I recently had a 2 day business meeting here and the services was fantastic. My group loved the food provided by the hotel during the lunches. the staff was friendly and helpful. Laura and Leah are the bomb!MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t>Shanda M, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded December 8, 2017</t>
   </si>
   <si>
@@ -300,9 +426,6 @@
     <t>Stayed here for our anniversary and loved it! Great location and one of the nicer hotels I have stayed in. Bed was one of the most comfortable I've slept in! Also, service was awesome. They got wind it was our anniversary and did something very nice for us. Will not stay anywhere else when visiting the area in the future!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Shanda M, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded November 7, 2017</t>
   </si>
   <si>
@@ -312,6 +435,57 @@
     <t>Stayed here for our anniversary and loved it! Great location and one of the nicer hotels I have stayed in. Bed was one of the most comfortable I've slept in! Also, service was awesome. They got wind it was our anniversary and did something very nice for us. Will not stay anywhere else when visiting the area in the future!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r534744226-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>534744226</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>Pleasant Staff</t>
+  </si>
+  <si>
+    <t>Our stay was great!  Tamika at the front desk was very professional, and went above and beyond to make our stay a pleasant one.  The room was clean and modern. The beds are very comfortable. We would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Shanda M, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Our stay was great!  Tamika at the front desk was very professional, and went above and beyond to make our stay a pleasant one.  The room was clean and modern. The beds are very comfortable. We would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r534136340-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>534136340</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>Meeting location and hotel</t>
+  </si>
+  <si>
+    <t>Had a mid-year review with twelve leaders from across the USA... accommodations were good, meeting room was well positioned, set up so we could have some pr-meetings and the staff including Leah was outstanding.  Would definitely book again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Shanda M, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded October 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2017</t>
+  </si>
+  <si>
+    <t>Had a mid-year review with twelve leaders from across the USA... accommodations were good, meeting room was well positioned, set up so we could have some pr-meetings and the staff including Leah was outstanding.  Would definitely book again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r527703428-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -390,6 +564,60 @@
     <t>Love this place!  Spend a lot of time here.  My host hotel in Houston.  Marshall, Eric, Paige, and Shannon staff here, A-list! Friendly service, professional, over extend themselves for customer service, and the Bistro's  food selections and convenience will make your stay whether leisure or business most enjoyable.   More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r511211720-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>511211720</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>The best hotel</t>
+  </si>
+  <si>
+    <t>My experience exceeded my expectations. The staff is wonderful and they go out of their way to help, no matter what time. The night woman named Paige was always smiles and energetic. She is a true asset to the company. I have business in the Woodlands and will continue to stay at this hotel, as they make me feel like family.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>My experience exceeded my expectations. The staff is wonderful and they go out of their way to help, no matter what time. The night woman named Paige was always smiles and energetic. She is a true asset to the company. I have business in the Woodlands and will continue to stay at this hotel, as they make me feel like family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r508157184-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>508157184</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Concert Getaway</t>
+  </si>
+  <si>
+    <t>Great location to restaurants, and concert venue. Hotel was very clean, and well maintained. Greeted by a very friendly hotel staff member. Check-in was quick and easy. Would recommend this hotel for anyone coming to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Great location to restaurants, and concert venue. Hotel was very clean, and well maintained. Greeted by a very friendly hotel staff member. Check-in was quick and easy. Would recommend this hotel for anyone coming to the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r507924885-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -405,15 +633,6 @@
     <t>Recently visited my children in Houston and stayed here for first time. Had an excellent room, very clean and everyone was extremely nice and courteous. Will definitely use this hotel again in the future.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t>Management response:Responded August 3, 2017</t>
-  </si>
-  <si>
-    <t>Responded August 3, 2017</t>
-  </si>
-  <si>
     <t>Recently visited my children in Houston and stayed here for first time. Had an excellent room, very clean and everyone was extremely nice and courteous. Will definitely use this hotel again in the future.More</t>
   </si>
   <si>
@@ -459,6 +678,54 @@
     <t>My experience with the staff member Leah at the Courtyard Houston North Shenandoah was excellent.  My husband was there on business and stayed at the Courtyard.  While he was there he had a birthday...  I couldn't be there with him and   wanted to surprise him with a special birthday treat. Edible Arrangements were unable to secure same day delivery...   Therefore, I contacted the hotel and spoke with Leah.   She went over and above to assist me with surprising my husband  with a special birthday dessert.  In fact, once she secured the dessert (Cheese cake with chocolate sauce and strawberries).  Leah had the dessert and  a glass of wine delivered to my husband's room.  He was totally surprised.  He will continue to stay at this location when every visiting Texas.  Thanks Leah for making my husband's birthday special!  I could not have done it without your assistance.  Again, thank you!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r502446887-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>502446887</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>very convenient clean and comfortable</t>
+  </si>
+  <si>
+    <t>This is not the first stay and it certainly wont be the last.  Situated next to the Conroe IDS football stadium and natatorium the location is pure genius.  Very clean and the staff very friendly and accomodating.  Manager on duty Tamika very friendly and hospitable.  They are doing everything right at this hotel.  Only minor complaint is when constructed should have put more insulation there is very little sound proofing, can hear everything around and on top of you.  Not a big deal and not a deterrent from coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>This is not the first stay and it certainly wont be the last.  Situated next to the Conroe IDS football stadium and natatorium the location is pure genius.  Very clean and the staff very friendly and accomodating.  Manager on duty Tamika very friendly and hospitable.  They are doing everything right at this hotel.  Only minor complaint is when constructed should have put more insulation there is very little sound proofing, can hear everything around and on top of you.  Not a big deal and not a deterrent from coming back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r501324344-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>501324344</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Sanctuary during a mad week</t>
+  </si>
+  <si>
+    <t>I was in the area for a week working. The job was extremely taxing but the staff at the hotel were fantastic and gave the hotel a bit of personality that is so often missing from big chain hotels.I found myself not wanting to leave in the evenings (but I had to as there are many restaurants nearby, it would be silly not to).I'd gladly recommend this place to peopleMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>I was in the area for a week working. The job was extremely taxing but the staff at the hotel were fantastic and gave the hotel a bit of personality that is so often missing from big chain hotels.I found myself not wanting to leave in the evenings (but I had to as there are many restaurants nearby, it would be silly not to).I'd gladly recommend this place to peopleMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r495424271-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -477,12 +744,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>Management response:Responded July 14, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 14, 2017</t>
-  </si>
-  <si>
     <t>We booked this hotel the night before our cruise out of Galveston. We were driving in from OKC and meeting relatives for dinner near Conroe. We arrived 6/10. The hotel was busy and the lobby was a bit loud but everyone was very friendly. The hotel grounds were clean and appeared safe. The front desk staff and bar staff provided us with wonderful customer service. Our room exceeded our expectations. The decor and style of the room and bathroom compared to those in luxury hotels. In fact a few months ago I stayed at the new Marriott Marquis in downtown Houston for $300+ a night and this hotel room blew that one out of the water.More</t>
   </si>
   <si>
@@ -531,6 +792,54 @@
     <t>My wife and I stayed here one night on a trip to Houston. It was what you would expect from a Marriott property, clean, comfortable, quiet and friendly. It's in close proximity to the Woodlands mall and easy to locate from the highway. We booked on Expedia with taxes etc and total charges was $100. 58 for a king and two adults. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r460748475-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>460748475</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>Extended Business Stay</t>
+  </si>
+  <si>
+    <t>I was fortunate to be able to stay at this location for an extended period of time for work - but the best part of the stay were the accommodations and the staff.  Top notch - personal, professional, fun and enjoyable!.  I also needed a small conference room and AV for different dates throughout my stay and the room was always ready.  Lara, Leah, Brooklyn, Marshall, and I'm sadly forgetting others I know - were all so great to work with (and after being there for  6 weeks) and to get to know.  The room, meeting area, grounds, entry/lobby area and Bistro were all kept so clean - it was just a pleasure to stay here.  Thank you guys for an amazing visit - and I will be staying here again if I'm ever back in your area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>I was fortunate to be able to stay at this location for an extended period of time for work - but the best part of the stay were the accommodations and the staff.  Top notch - personal, professional, fun and enjoyable!.  I also needed a small conference room and AV for different dates throughout my stay and the room was always ready.  Lara, Leah, Brooklyn, Marshall, and I'm sadly forgetting others I know - were all so great to work with (and after being there for  6 weeks) and to get to know.  The room, meeting area, grounds, entry/lobby area and Bistro were all kept so clean - it was just a pleasure to stay here.  Thank you guys for an amazing visit - and I will be staying here again if I'm ever back in your area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r460232876-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>460232876</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>I arrived late, and was greeted by a very nice gentleman at the front desk.  He was able to accommodate all my requests, and got me checked in quickly.  The room was fairly clean, but the bathroom floor was a little sticky.  It was a quick stay, but enjoyable, I would absolutely go back.  The location was really great as well, no issues getting to the Woodlands during traffic times.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I arrived late, and was greeted by a very nice gentleman at the front desk.  He was able to accommodate all my requests, and got me checked in quickly.  The room was fairly clean, but the bathroom floor was a little sticky.  It was a quick stay, but enjoyable, I would absolutely go back.  The location was really great as well, no issues getting to the Woodlands during traffic times.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r453535564-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -546,9 +855,6 @@
     <t>Rented meeting room for a two day sales conference, both Laura &amp; Leah were great hosts and guests enjoyed staying at the hotel.   Central location, newer facility, and walking distance to stores and restaurants.MoreShow less</t>
   </si>
   <si>
-    <t>January 2017</t>
-  </si>
-  <si>
     <t>Management response:Responded January 23, 2017</t>
   </si>
   <si>
@@ -609,6 +915,54 @@
     <t>Stayed here for a sporting event it is located right next to a natatorium and football stadium.  Nice hotel but rooms a bit small and the walls are paper thin.  Also in this price range many competitors offer free breakfast, this hotel should as well as I will stay elsewhere next time.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r437102075-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>437102075</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Great venue to host a Sales Meeting</t>
+  </si>
+  <si>
+    <t>The location and property are great. The common areas and guests rooms are clean and modern. The meeting space, AV equipment, food and beverage met all expectations. Laura Marks and her staff were more than flexible, accommodating, friendly, and efficient. She provided me the confidence needed in booking the venue from afar and handled everything in my absence. There were no worries and everything went smoothly. I will use this venue the next time we hold our meeting in The Woodlands. Compliments to Laura and her team for being professional, easy to work with, and true to her word.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2016</t>
+  </si>
+  <si>
+    <t>The location and property are great. The common areas and guests rooms are clean and modern. The meeting space, AV equipment, food and beverage met all expectations. Laura Marks and her staff were more than flexible, accommodating, friendly, and efficient. She provided me the confidence needed in booking the venue from afar and handled everything in my absence. There were no worries and everything went smoothly. I will use this venue the next time we hold our meeting in The Woodlands. Compliments to Laura and her team for being professional, easy to work with, and true to her word.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r436860382-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>436860382</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>Convenient location - great staff</t>
+  </si>
+  <si>
+    <t>Newer Courtyard that's close to a number of restaurants and shopping in The Woodlands area.Kudos to Leah who always makes me feel welcome with her happy disposition and hospitality.  I'll stay here again in the coming months as I travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Newer Courtyard that's close to a number of restaurants and shopping in The Woodlands area.Kudos to Leah who always makes me feel welcome with her happy disposition and hospitality.  I'll stay here again in the coming months as I travel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r436388082-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -624,15 +978,6 @@
     <t>This is a newish Courtyard with their new design, which is great for business travelers.  I had stayed here before and had high expectations for an easy stay.  My arrival was at Midnight and I was out by 7:30 AM.  So, all I really wanted was a decent bed (provided) and a good shower (not so much).The shower itself is nice and roomy.  It's not in a tub.  The handle is on the opposite wall from the shower head, which is an excellent design so that you don't get wet turning it on and off.  The problem was that the shower in this room was broken.  It came on to full hot but could not be adjusted or shut off.  A brief, uncomfortable and unsatisfying shower followed.  Things break.  That's not the issue.  How they follow up with it is what's important.  The front desk clerk was indifferent.  She noted that anyone who could do anything about it wasn't there.  I left my contact information and was promised that I would be contacted and have heard nothing.MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
-    <t>Management response:Responded November 14, 2016</t>
-  </si>
-  <si>
-    <t>Responded November 14, 2016</t>
-  </si>
-  <si>
     <t>This is a newish Courtyard with their new design, which is great for business travelers.  I had stayed here before and had high expectations for an easy stay.  My arrival was at Midnight and I was out by 7:30 AM.  So, all I really wanted was a decent bed (provided) and a good shower (not so much).The shower itself is nice and roomy.  It's not in a tub.  The handle is on the opposite wall from the shower head, which is an excellent design so that you don't get wet turning it on and off.  The problem was that the shower in this room was broken.  It came on to full hot but could not be adjusted or shut off.  A brief, uncomfortable and unsatisfying shower followed.  Things break.  That's not the issue.  How they follow up with it is what's important.  The front desk clerk was indifferent.  She noted that anyone who could do anything about it wasn't there.  I left my contact information and was promised that I would be contacted and have heard nothing.More</t>
   </si>
   <si>
@@ -681,6 +1026,60 @@
     <t>I'm part of a traveling crew that travels all over the Us and puts together fishing tournaments, we had a tournament at Papa's on the Lake this past weekend. My staff and I stayed at this hotel for an entire week during our event. We look for a lot of different qualities when searching for a hotel, for one there are a handful of places to eat at, location was close to where the event was held, the staff was super helpful and accommodating, in fact on a level from 1-10 I wold have to rate this hotel a high 9. Thank you Courtyard Shenandoah and to Laura Marks for making this such a great experience, we will for sure be back. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r421149750-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>421149750</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Loved it</t>
+  </si>
+  <si>
+    <t>New Hotel...1 ur or so! Great staff! My room was clean, up to date and the bed was comfortable. Loved the hotel. Easy access to the interstate, shops and great places to eat! I will stay here again.ThanksMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2016</t>
+  </si>
+  <si>
+    <t>New Hotel...1 ur or so! Great staff! My room was clean, up to date and the bed was comfortable. Loved the hotel. Easy access to the interstate, shops and great places to eat! I will stay here again.ThanksMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r400799055-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>400799055</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Awesome place for a business meeting!</t>
+  </si>
+  <si>
+    <t>We held our annual Operation Team meeting here last week. The staff was awesome. Laura Marks and Misty Thornton ensured that every need was cared for and that everything went smoothly. We will have all of our meeting here in the future. Additionally the executive team was so please with the hotel and the rooms they want to stay here every time they come into town.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2016</t>
+  </si>
+  <si>
+    <t>We held our annual Operation Team meeting here last week. The staff was awesome. Laura Marks and Misty Thornton ensured that every need was cared for and that everything went smoothly. We will have all of our meeting here in the future. Additionally the executive team was so please with the hotel and the rooms they want to stay here every time they come into town.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r400533867-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -693,19 +1092,10 @@
     <t>My Wedding</t>
   </si>
   <si>
-    <t>We had the most amazing stay after our beautiful wedding. The staff was so friendly, and Misty Thornton, the sales and event coordinator, took care of everything we needed. She set up a beautiful champagne brunch for us the morning after! Thank you for making our wedding that much more special!! ❤️MoreShow less</t>
-  </si>
-  <si>
-    <t>July 2016</t>
-  </si>
-  <si>
-    <t>Management response:Responded August 17, 2016</t>
-  </si>
-  <si>
-    <t>Responded August 17, 2016</t>
-  </si>
-  <si>
-    <t>We had the most amazing stay after our beautiful wedding. The staff was so friendly, and Misty Thornton, the sales and event coordinator, took care of everything we needed. She set up a beautiful champagne brunch for us the morning after! Thank you for making our wedding that much more special!! ❤️More</t>
+    <t>We had the most amazing stay after our beautiful wedding. The staff was so friendly, and Misty Thornton, the sales and event coordinator, took care of everything we needed. She set up a beautiful champagne brunch for us the morning after! Thank you for making our wedding that much more special!! ️MoreShow less</t>
+  </si>
+  <si>
+    <t>We had the most amazing stay after our beautiful wedding. The staff was so friendly, and Misty Thornton, the sales and event coordinator, took care of everything we needed. She set up a beautiful champagne brunch for us the morning after! Thank you for making our wedding that much more special!! ️More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r387237800-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
@@ -750,12 +1140,54 @@
     <t>Don't even know where to start with the compliments!  The hotel was extremely clean, rooms great size, comfortable beds, lobby area fantastic for relaxing every night.  We had pancake breakfast catered by the hotel for the swimmers every morning, and it was delicious and always ready on time.   EVERY staff member we worked with were extremely courteous and professional, going out of their way to accomodate us.  MAJOR thanks to Misty, Jessica, Leah, Laura, and Luis!!!   We will definitely be staying here the next time we are are town for a swim meet!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Don't even know where to start with the compliments!  The hotel was extremely clean, rooms great size, comfortable beds, lobby area fantastic for relaxing every night.  We had pancake breakfast catered by the hotel for the swimmers every morning, and it was delicious and always ready on time.   EVERY staff member we worked with were extremely courteous and professional, going out of their way to accomodate us.  MAJOR thanks to Misty, Jessica, Leah, Laura, and Luis!!!   We will definitely be staying here the next time we are are town for a swim meet!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r380291071-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>380291071</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Courtyard Houston North/Shenandoah</t>
+  </si>
+  <si>
+    <t>We stayed here two nights for the Ironman in May. It's a very nice hotel and once again the Marriott chain has met our expectations. We had a King Suite and it was big enough for three, although the description says there is a privacy wall separating the living area from the bed but really it was just one big room. Not really a big deal. Nice décor, clean and well stocked rooms and friendly staff. It was very close and convenient to The Woodlands and was easy to drive to and from the Ironman events.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>We stayed here two nights for the Ironman in May. It's a very nice hotel and once again the Marriott chain has met our expectations. We had a King Suite and it was big enough for three, although the description says there is a privacy wall separating the living area from the bed but really it was just one big room. Not really a big deal. Nice décor, clean and well stocked rooms and friendly staff. It was very close and convenient to The Woodlands and was easy to drive to and from the Ironman events.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r374691101-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>374691101</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel for business or pleasure</t>
+  </si>
+  <si>
+    <t>My family visited this hotel while in Houston seeing a music concert. The staff were friendly and welcoming especially Laura and Luis. They offered suggestions on restaurants in the area and arranging transportation to the venue. The rooms were new, clean, and stylish with a walk in tub and big kind bed. The outdoor pool was a welcome addition for the kids. The hotel was very close to the music venue as well as a variety of restaurants. We will defiantly be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>luisnazario2004, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>My family visited this hotel while in Houston seeing a music concert. The staff were friendly and welcoming especially Laura and Luis. They offered suggestions on restaurants in the area and arranging transportation to the venue. The rooms were new, clean, and stylish with a walk in tub and big kind bed. The outdoor pool was a welcome addition for the kids. The hotel was very close to the music venue as well as a variety of restaurants. We will defiantly be back!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r374296970-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -771,9 +1203,6 @@
     <t>We came to Houston to see a concert at the Cynthia Woods Mitchell Pavilion.  The hotel was near the venue, very convenient.  There are also plenty of local food options close to the hotel.  It's a nice area of Houston to base your operations out of.The hotel itself was great, staff were friendly.  We traveled with another family and were able to all relax with our kids in the comfortable lounge area.  The sizable pool was also a great diversion for the children.  Rooms were great, clean, nice roomy shower.If we go back to Houston we'll stay at the same hotel it was a great experience.MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>luisnazario2004, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded May 19, 2016</t>
   </si>
   <si>
@@ -816,6 +1245,60 @@
     <t>We use Courtyard Houston North/Shenandoah for all our corporate meetings and they always do an excellent job.  The most recent meeting was our Annual Nurse Appreciation dinner and Misty was so helpful with our constant changes.  Our nurses enjoyed the rooms and hospitality of the hotel. Excellent service!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r372681426-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>372681426</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Amazing staff and accommodations!!!</t>
+  </si>
+  <si>
+    <t>I host an annual athletic event in The Woodlands, Texas and have use Courtyard Houston North/Shenandoah for the past two years.  The director of sales, Laura Marks has gone out of her way to accommodate the needs of each and every guest staying at this beautiful hotel.   Our judges as well as athletes have continually raved about the friendly staff, lovely décor and cleanliness of this home away from home.  I am already booking a block of room for next year’s event, to make sure that there will be availability for our all our guests.  I wish I could take this Courtyard and staff with me each time I travel.  Thank you Courtyard Houston North/Shenandoah!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>luisnazario2004, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>I host an annual athletic event in The Woodlands, Texas and have use Courtyard Houston North/Shenandoah for the past two years.  The director of sales, Laura Marks has gone out of her way to accommodate the needs of each and every guest staying at this beautiful hotel.   Our judges as well as athletes have continually raved about the friendly staff, lovely décor and cleanliness of this home away from home.  I am already booking a block of room for next year’s event, to make sure that there will be availability for our all our guests.  I wish I could take this Courtyard and staff with me each time I travel.  Thank you Courtyard Houston North/Shenandoah!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r361583874-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>361583874</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Great Experience for our group!</t>
+  </si>
+  <si>
+    <t>We had a block of 20 rooms for our event. The hotel was FABULOUS to work with!!!Everything was ready for our arrival and Misty worked with us on special requests.  Can't say enough about how helpful she was, staff was great.  The hotel was quiet, I didn't hear anything and slept great.  The rooms are nice, beds are comfortable. . . . room had everything you could want.  You can't go wrong with booking this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>luisnazario2004, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2016</t>
+  </si>
+  <si>
+    <t>We had a block of 20 rooms for our event. The hotel was FABULOUS to work with!!!Everything was ready for our arrival and Misty worked with us on special requests.  Can't say enough about how helpful she was, staff was great.  The hotel was quiet, I didn't hear anything and slept great.  The rooms are nice, beds are comfortable. . . . room had everything you could want.  You can't go wrong with booking this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r360506885-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -891,6 +1374,54 @@
     <t>Travelers.......Brand NEW Courtyard!  Decent WiFi.  This is a very new Courtyard and thus is nicely appointed.  The staff last night was outstanding!  The room was really good and the bed was very comfy!  The WiFi, although ok at just 6 mb per sec, was disappointing for a new property......Marriott needs to get it together and upgrade their WiFi speed at their hotels!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r351880191-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>351880191</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Marriott, You Are Breaking My Heart</t>
+  </si>
+  <si>
+    <t>I love, love, love the Marriott chain.  I go looking for their hotels when I travel because I'm rarely if ever disappointed.  Unfortunately, this is a love that continues to go unreciprocated. I wish someone up the management chain would recognize that Pepsi just doesn't do it for a LOT of travelers.  At least throw some Diet Coke in vending machines somewhere on the premises to placate your ardent supporters. This is my ONLY complaint about Marriott. Our stay at this Courtyard was perfect in every other respect.  The room decor is jazzy and reminds me of the funkiness of the SpringHill Suites near Houston-IAH.  Great lighting, great sofa and ottoman in the king suite, quiet, comfy all around. Perfect location in The Woodlands if you're heading to a concert at the Cynthia Woods Pavilion. Interesting shopping areas nearby. Worth a stay as long as you cart in your own Diet Coke.MoreShow less</t>
+  </si>
+  <si>
+    <t>luisnazario2004, Public Relations Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded March 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2016</t>
+  </si>
+  <si>
+    <t>I love, love, love the Marriott chain.  I go looking for their hotels when I travel because I'm rarely if ever disappointed.  Unfortunately, this is a love that continues to go unreciprocated. I wish someone up the management chain would recognize that Pepsi just doesn't do it for a LOT of travelers.  At least throw some Diet Coke in vending machines somewhere on the premises to placate your ardent supporters. This is my ONLY complaint about Marriott. Our stay at this Courtyard was perfect in every other respect.  The room decor is jazzy and reminds me of the funkiness of the SpringHill Suites near Houston-IAH.  Great lighting, great sofa and ottoman in the king suite, quiet, comfy all around. Perfect location in The Woodlands if you're heading to a concert at the Cynthia Woods Pavilion. Interesting shopping areas nearby. Worth a stay as long as you cart in your own Diet Coke.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r351157816-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>351157816</t>
+  </si>
+  <si>
+    <t>02/26/2016</t>
+  </si>
+  <si>
+    <t>VERY NICE HOTEL and LOVELY staff</t>
+  </si>
+  <si>
+    <t>I go there for business and the staff are VERY nice and professional.  The food they serve is just amazing and awesome.  One staff member named Jessica is just too outstanding with her services, and she makes me look forward to having business meetings there!MoreShow less</t>
+  </si>
+  <si>
+    <t>luisnazario2004, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded February 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2016</t>
+  </si>
+  <si>
+    <t>I go there for business and the staff are VERY nice and professional.  The food they serve is just amazing and awesome.  One staff member named Jessica is just too outstanding with her services, and she makes me look forward to having business meetings there!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r350081433-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -906,9 +1437,6 @@
     <t>We used this facility to conduct a Managers training session.  Everything was perfect.  The staff was very attentive and treated every participant as if they were their personal guest.  We had special requests that were addressed immediately and flawlessly.As an employee at one of Houston Top Workplaces, I can say this hotel have the best hotel staff in our area.  Will continue using this facility and encourage others to do the same.MoreShow less</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>luisnazario2004, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded February 23, 2016</t>
   </si>
   <si>
@@ -966,6 +1494,51 @@
     <t>We travel once a month as a competitive soccer team. This was by far the best customer service we have experienced at the hotel. They were well organized and friendly with the players. The rooms were clean, large and the staff was accommodating to all of our needs. I would highly recommend them.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r345191072-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>345191072</t>
+  </si>
+  <si>
+    <t>02/05/2016</t>
+  </si>
+  <si>
+    <t>Business Trip and Meeting Facilities</t>
+  </si>
+  <si>
+    <t>We had a business trip to the Houston area to meet clients and needed a hotel for our stay with a nice conference room.  The Courtyard Marriott North/Shenandoah was exactly what we needed.  The whole hotel is beautiful and the conference room was exactly what we needed.  The staff at the hotel was incredibly helpful and friendly and went over and above to make sure our needs were met.  We will definitely use this hotel again for our next travel to the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>luisnazario2004, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded February 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2016</t>
+  </si>
+  <si>
+    <t>We had a business trip to the Houston area to meet clients and needed a hotel for our stay with a nice conference room.  The Courtyard Marriott North/Shenandoah was exactly what we needed.  The whole hotel is beautiful and the conference room was exactly what we needed.  The staff at the hotel was incredibly helpful and friendly and went over and above to make sure our needs were met.  We will definitely use this hotel again for our next travel to the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r339176752-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>339176752</t>
+  </si>
+  <si>
+    <t>01/11/2016</t>
+  </si>
+  <si>
+    <t>Convenient and very pleasant</t>
+  </si>
+  <si>
+    <t>First time staying at this hotel and very impressed with property.  Marriott has gotten the new design for Courtyard absolutely right.  Hotel is brand new, very nicely appointed and staff is very pleasant.  Room was large and very comfortable.  Location is just off I-45 and very convenient to restaurants and shopping. Only minor point is that cocktails at hotel are a little pricey.  Would highly recommend hotel for either business or personal tripMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>First time staying at this hotel and very impressed with property.  Marriott has gotten the new design for Courtyard absolutely right.  Hotel is brand new, very nicely appointed and staff is very pleasant.  Room was large and very comfortable.  Location is just off I-45 and very convenient to restaurants and shopping. Only minor point is that cocktails at hotel are a little pricey.  Would highly recommend hotel for either business or personal tripMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r326114218-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -1032,6 +1605,52 @@
     <t>This is a fairly new Marriott and its decor is a nice change from the typical Marriott courtyard. The staff were friendly, greeted you coming and going. Even joked about us being here next week at a hotel on Friday the 13th. Our anniversary so it's a lucky day in our books. My biggest brag here is finally a Marriott that has their Wi-Fi setup right and managed well. My company installs Ruckus wireless in student housing and its always been a pain to me that a hotel can't get right. I did several speed test and consistently no matter where I was in the building I was getting 5Mbps down and up to 6Mbps up. Finally I can work from my room or watch Netflix or Hulu while on the road!!!! Thank you, you are now our first choice for a Marriott brand when here on business. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r321164504-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>321164504</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Staying again next month!</t>
+  </si>
+  <si>
+    <t>This is a great hotel and very close to the Scrapyards Sports Complex. Its new and clean with small refrigerator and microwave in each room. The modern room is wonderful for those who travel with phones, tablets, etc. Multiple Plugs on each side of the bed and additional ones by the desk. Bathroom is big and roomy with standard soap, shampoo, etc. Walkin shower is extra large. You'll like this hotel and the staff there is great. Front desk (Josh) is one of my reasons for going back! Well done Marriott! MoreShow less</t>
+  </si>
+  <si>
+    <t>luisnazario2004, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>This is a great hotel and very close to the Scrapyards Sports Complex. Its new and clean with small refrigerator and microwave in each room. The modern room is wonderful for those who travel with phones, tablets, etc. Multiple Plugs on each side of the bed and additional ones by the desk. Bathroom is big and roomy with standard soap, shampoo, etc. Walkin shower is extra large. You'll like this hotel and the staff there is great. Front desk (Josh) is one of my reasons for going back! Well done Marriott! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r320979226-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>320979226</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Home Away from Home</t>
+  </si>
+  <si>
+    <t>I have traveled for business for over 20 years and needless to say have stayed at many hotels over the years.  Marriott is my preferred chain to stay at.  In most cases a hotel is just a building with rooms in it .. You don't spend much time there and you are in and out.
+The title of my review sums it up for this Courtyard it is my home away from home.  The staff here goes out of their way to make sure you feel at home in their hotel, when you walk in the door you are greeted with a smile and how is everything going , you are constantly asked if there is anything they can to make your stay more comfortable. I have been on this project so long they carry soft drinks I like they know which rooms I prefer to have and make sure they do their best to see I get those rooms when they can.
+The other evening the parking lot was completely full and John from the front desk offered to valet my car when the lot opened up some.  That is not a service they offer but for their guests I am not surprised at all that he offered and actually parked it for me.  I was at the Bistro having a night cap after a great dinner out.  Housekeeping is impeccable at this hotel my room is always perfect...I have traveled for business for over 20 years and needless to say have stayed at many hotels over the years.  Marriott is my preferred chain to stay at.  In most cases a hotel is just a building with rooms in it .. You don't spend much time there and you are in and out.The title of my review sums it up for this Courtyard it is my home away from home.  The staff here goes out of their way to make sure you feel at home in their hotel, when you walk in the door you are greeted with a smile and how is everything going , you are constantly asked if there is anything they can to make your stay more comfortable. I have been on this project so long they carry soft drinks I like they know which rooms I prefer to have and make sure they do their best to see I get those rooms when they can.The other evening the parking lot was completely full and John from the front desk offered to valet my car when the lot opened up some.  That is not a service they offer but for their guests I am not surprised at all that he offered and actually parked it for me.  I was at the Bistro having a night cap after a great dinner out.  Housekeeping is impeccable at this hotel my room is always perfect when I return at the end of the work day.When I am driving to the hotel from the airport I am looking forward to checking into this hotel.  It is my home with my friends at the hotel  and they make the guests feel like family.  Keep up the great job and please keep the staff happy it is hard to find this quality of service and caring and you do not want to mess it up for any reason.   Great Job guys I will not stay anywhere else in the area  I will be on the project for awhile.I will always keep asking for an ATM and then the hotel would be even more perfect than it already is .... Thank you for making it a Home Away from Home. Regards,Mr. Mark S.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have traveled for business for over 20 years and needless to say have stayed at many hotels over the years.  Marriott is my preferred chain to stay at.  In most cases a hotel is just a building with rooms in it .. You don't spend much time there and you are in and out.
+The title of my review sums it up for this Courtyard it is my home away from home.  The staff here goes out of their way to make sure you feel at home in their hotel, when you walk in the door you are greeted with a smile and how is everything going , you are constantly asked if there is anything they can to make your stay more comfortable. I have been on this project so long they carry soft drinks I like they know which rooms I prefer to have and make sure they do their best to see I get those rooms when they can.
+The other evening the parking lot was completely full and John from the front desk offered to valet my car when the lot opened up some.  That is not a service they offer but for their guests I am not surprised at all that he offered and actually parked it for me.  I was at the Bistro having a night cap after a great dinner out.  Housekeeping is impeccable at this hotel my room is always perfect...I have traveled for business for over 20 years and needless to say have stayed at many hotels over the years.  Marriott is my preferred chain to stay at.  In most cases a hotel is just a building with rooms in it .. You don't spend much time there and you are in and out.The title of my review sums it up for this Courtyard it is my home away from home.  The staff here goes out of their way to make sure you feel at home in their hotel, when you walk in the door you are greeted with a smile and how is everything going , you are constantly asked if there is anything they can to make your stay more comfortable. I have been on this project so long they carry soft drinks I like they know which rooms I prefer to have and make sure they do their best to see I get those rooms when they can.The other evening the parking lot was completely full and John from the front desk offered to valet my car when the lot opened up some.  That is not a service they offer but for their guests I am not surprised at all that he offered and actually parked it for me.  I was at the Bistro having a night cap after a great dinner out.  Housekeeping is impeccable at this hotel my room is always perfect when I return at the end of the work day.When I am driving to the hotel from the airport I am looking forward to checking into this hotel.  It is my home with my friends at the hotel  and they make the guests feel like family.  Keep up the great job and please keep the staff happy it is hard to find this quality of service and caring and you do not want to mess it up for any reason.   Great Job guys I will not stay anywhere else in the area  I will be on the project for awhile.I will always keep asking for an ATM and then the hotel would be even more perfect than it already is .... Thank you for making it a Home Away from Home. Regards,Mr. Mark S.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r320362385-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1702,48 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r296472435-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>296472435</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We were in between houses and stayed for 10 days here! The hotel is just beautiful, far more than I expected from a Courtyard. We were so pleased!! There was a bar, a restaurant to order food, a snack bar, complimentary newspapers, free wifi, a work center, laundry facilities and a beautiful pool. The best amenity was the staff! They went above and beyond. They were so friendly, helpful and personable. A big thanks to John, Linda, Brandon and Emili for making our stay a great one. Courtyard is very lucky to have this great staff!! Would recommend this hotel to the pickiest of people.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r290200995-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>290200995</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>Safe, Quiet &amp; Clean stay at new Courtyard</t>
+  </si>
+  <si>
+    <t>Friendly staff, new hotel, tastefully decorated, safe location 2 blocks off I-45. Our 2 queen bed room had a dorm size refrigerator and mini microwave, desk &amp; chair, separate comfy chair and 1 TV. Beds, bathroom and room overall was clean, fresh and very comfortable.Plenty of shopping and dining options nearby. They are located near a business park area so it is quiet during the evening &amp; weekends.Will stay here again if I find myself traveling along I-45 again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chad L, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded July 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2015</t>
+  </si>
+  <si>
+    <t>Friendly staff, new hotel, tastefully decorated, safe location 2 blocks off I-45. Our 2 queen bed room had a dorm size refrigerator and mini microwave, desk &amp; chair, separate comfy chair and 1 TV. Beds, bathroom and room overall was clean, fresh and very comfortable.Plenty of shopping and dining options nearby. They are located near a business park area so it is quiet during the evening &amp; weekends.Will stay here again if I find myself traveling along I-45 again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r289983896-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -1098,12 +1759,6 @@
     <t>Located in a business park, so at night, there's very little traffic around it.  It's about a block off the  I45 Freeway, so noise from the freeway is very negligible.  Room to room noise was also negligible.Check in was easy. Hotel was very clean.  Rooms and common areas look new, but I think the hotel is a few years old.Breakfast area was clean.  Hot breakfast consisting of eggs, sausage, toast, cereals, fresh bananas, apples and oranges, fruit juices, coffee etc.Room had a small cook top, sink and refrigerator.  In room coffee pot was easy to operate.  Coffee was good!  There were two packets of regular coffee and two decaf.  I walked the two decaf down to the front desk and asked if I could swap them for two regular coffee.  Desk attendant said, "We don't have any of that down here."  I asked, "You don't have any coffee?"  Her reply was a simple "No".  OK, well, minor setback.  I drank the decaf at night and saved the regular for morning.Check out was easy.MoreShow less</t>
   </si>
   <si>
-    <t>Chad L, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded July 28, 2015</t>
-  </si>
-  <si>
-    <t>Responded July 28, 2015</t>
-  </si>
-  <si>
     <t>Located in a business park, so at night, there's very little traffic around it.  It's about a block off the  I45 Freeway, so noise from the freeway is very negligible.  Room to room noise was also negligible.Check in was easy. Hotel was very clean.  Rooms and common areas look new, but I think the hotel is a few years old.Breakfast area was clean.  Hot breakfast consisting of eggs, sausage, toast, cereals, fresh bananas, apples and oranges, fruit juices, coffee etc.Room had a small cook top, sink and refrigerator.  In room coffee pot was easy to operate.  Coffee was good!  There were two packets of regular coffee and two decaf.  I walked the two decaf down to the front desk and asked if I could swap them for two regular coffee.  Desk attendant said, "We don't have any of that down here."  I asked, "You don't have any coffee?"  Her reply was a simple "No".  OK, well, minor setback.  I drank the decaf at night and saved the regular for morning.Check out was easy.More</t>
   </si>
   <si>
@@ -1143,6 +1798,42 @@
     <t>This is a new property that is perfect in every way. It's sparkling clean and the staff is Texas friendly. They learned my name right away and used it the several days I stayed. It's nicely decorated. I'll be back here when I'm in this area again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r283098754-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>283098754</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very convenient </t>
+  </si>
+  <si>
+    <t>Stayed 4 nights, swim meet nearby. We had a great breakfast each morning, and location very convenient to the pool/football stadium. 5 minute walk or so. Room was nice, staff very helpful, place very clean (still has the new car smell ;-) Plenty of shopping and restaurants across the street so down time can be filled easily.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed 4 nights, swim meet nearby. We had a great breakfast each morning, and location very convenient to the pool/football stadium. 5 minute walk or so. Room was nice, staff very helpful, place very clean (still has the new car smell ;-) Plenty of shopping and restaurants across the street so down time can be filled easily.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r278301854-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>278301854</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Very nice stay! Will be back for another stay!</t>
+  </si>
+  <si>
+    <t>Was visiting my son &amp; daughter in law in The Woodlands. Have stayed at a number of hotels in the area. I really liked this hotel and will be back for repeat stays. The hotel looks brand new. The pool area is very nice, &amp; has an adjacent sitting area with a fireplace that is very nice. I have included photos. The staff is very warm &amp; friendly, which means a lot to me. The only issue I had was that I was unable to run the air conditioner fan continuously, regardless of what setting I tried. I prefer to do this for air circulation and also noise control. MoreShow less</t>
+  </si>
+  <si>
+    <t>Was visiting my son &amp; daughter in law in The Woodlands. Have stayed at a number of hotels in the area. I really liked this hotel and will be back for repeat stays. The hotel looks brand new. The pool area is very nice, &amp; has an adjacent sitting area with a fireplace that is very nice. I have included photos. The staff is very warm &amp; friendly, which means a lot to me. The only issue I had was that I was unable to run the air conditioner fan continuously, regardless of what setting I tried. I prefer to do this for air circulation and also noise control. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r277251244-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -1158,9 +1849,6 @@
     <t>Consistently friendly and courteous staff. I love how I'm greatest when I arrive. The hotel is clean and had a great vibe. With weekly travel for business friendly people are so very important to me. I also love the makeup mirror. Little things do matter MoreShow less</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>Consistently friendly and courteous staff. I love how I'm greatest when I arrive. The hotel is clean and had a great vibe. With weekly travel for business friendly people are so very important to me. I also love the makeup mirror. Little things do matter More</t>
   </si>
   <si>
@@ -1209,6 +1897,51 @@
     <t>Brand new really nice hotel! We stayed for the ironman. Our room was never cleaned not a big deal about making beds etc. was never given fresh towels and our trash was overflowing and never taken out! No room service which I think is ridiculous for the amount you pay for this hotel. Also they closed the bistro at 9:57am. Which was a couple of people from ironman and most didn't get in until midnight. So of course wanted to sleep and takes a while to get moving after something like that. I'm very disappointed in this hotel!!!! Very nice hotel but the service sucks!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r272023665-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>272023665</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t>Nice, new hotel but a little noisy and won't accommodate 3rd party request</t>
+  </si>
+  <si>
+    <t>This is a nice, new hotel in The Woodlands area. We were hardly in our room, but just a couple of things to note: 1) while the bed was decent, I had a hard time sleeping due to trains passing nearby, 2) the hotel would not accommodate my request for a two queen room, even though there were plenty available. The reason was because we booked through a 3rd party. Not impressed with the service, but we made it work with the pull out sofa. MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a nice, new hotel in The Woodlands area. We were hardly in our room, but just a couple of things to note: 1) while the bed was decent, I had a hard time sleeping due to trains passing nearby, 2) the hotel would not accommodate my request for a two queen room, even though there were plenty available. The reason was because we booked through a 3rd party. Not impressed with the service, but we made it work with the pull out sofa. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r267167115-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>267167115</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Wonderful hotel in the Woodlands</t>
+  </si>
+  <si>
+    <t>This one is brand new hotel opened 5 months ago. The decor is very modern and chic. Very clean. The bed was very comfortable. Only thing is the bar opens only from 5 pm till 11. Very friendly hotel staff. Enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>BLIsrael, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded April 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2015</t>
+  </si>
+  <si>
+    <t>This one is brand new hotel opened 5 months ago. The decor is very modern and chic. Very clean. The bed was very comfortable. Only thing is the bar opens only from 5 pm till 11. Very friendly hotel staff. Enjoyed our stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r266842857-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -1227,12 +1960,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>BLIsrael, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded April 29, 2015</t>
-  </si>
-  <si>
-    <t>Responded April 29, 2015</t>
-  </si>
-  <si>
     <t>We had excellent service in the room and in the Bristol! Plan ahead and they accommodated us like we have never been treated. I highly recommend this hotel, in the future this is the only hotel we will stay in.More</t>
   </si>
   <si>
@@ -1278,6 +2005,45 @@
     <t>We stayed at this hotel this past weekend while attending a swim meet.  The location of this hotel cannot be beaten.  It is literally less than a mile from the natatorium/football stadium which is fantastic when you have to be at the pool at 6:45 AM.  We stayed in 2 different room types during our stay.  I'll start with the king room.  This may be one of the smallest hotel rooms I have ever stayed in.  It is TINY!!!!  The bathroom is very odd.  It has a shower only and the shower has no door.  It is very long with a weird open space to enter and exit.  It's bizarre......and drafty.  The bathroom has almost no storage area for your toiletries.  The plus side.......the room had a fridge and a microwave!  It also had a ton of plugs and multiple USB outlets.  Very convenient.  Overall the room was clean and it served it's purpose but it was definitely a tight squeeze!!!  We stored one of our suitcases behind the pull our couch because there was just no room for it anywhere else!  Our last night we moved to the room with 2 queens.  MUCH bigger.  Much more the size of a traditional hotel room.  It also has a tub, which I much preferred to the weird shower in the other room.  The staff at the hotel were all friendly and helpful.  My only issue was that when I needed quarters...We stayed at this hotel this past weekend while attending a swim meet.  The location of this hotel cannot be beaten.  It is literally less than a mile from the natatorium/football stadium which is fantastic when you have to be at the pool at 6:45 AM.  We stayed in 2 different room types during our stay.  I'll start with the king room.  This may be one of the smallest hotel rooms I have ever stayed in.  It is TINY!!!!  The bathroom is very odd.  It has a shower only and the shower has no door.  It is very long with a weird open space to enter and exit.  It's bizarre......and drafty.  The bathroom has almost no storage area for your toiletries.  The plus side.......the room had a fridge and a microwave!  It also had a ton of plugs and multiple USB outlets.  Very convenient.  Overall the room was clean and it served it's purpose but it was definitely a tight squeeze!!!  We stored one of our suitcases behind the pull our couch because there was just no room for it anywhere else!  Our last night we moved to the room with 2 queens.  MUCH bigger.  Much more the size of a traditional hotel room.  It also has a tub, which I much preferred to the weird shower in the other room.  The staff at the hotel were all friendly and helpful.  My only issue was that when I needed quarters for the dryer, they had none.  There are big events at the Conroe Natatorium almost every weekend!  They need a change machine so that swim families can dry their millions of wet towels every night or in between prelims and finals.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r257995009-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>257995009</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>wonderful staff</t>
+  </si>
+  <si>
+    <t>Everyone at this hotel was so friendly and accommodating. The motel is only 4 months old so rooms are really nice and everything is so clean. The motel is not right on the feeder and I had to make a u turn and go back around again to find it, it's a street off the feeder, but well worth it. So make sure you have directions.MoreShow less</t>
+  </si>
+  <si>
+    <t>Everyone at this hotel was so friendly and accommodating. The motel is only 4 months old so rooms are really nice and everything is so clean. The motel is not right on the feeder and I had to make a u turn and go back around again to find it, it's a street off the feeder, but well worth it. So make sure you have directions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r254365335-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>254365335</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Great energy</t>
+  </si>
+  <si>
+    <t>Walked into lobby and was greeted right away. Hotel had a great vibe. Was very clean and inviting.  Rooms are well designed and utilize space well. Fridge and microwave are hidden away so it feels like a bedroom not a kitchen. I love the touches here. Very pleased!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Walked into lobby and was greeted right away. Hotel had a great vibe. Was very clean and inviting.  Rooms are well designed and utilize space well. Fridge and microwave are hidden away so it feels like a bedroom not a kitchen. I love the touches here. Very pleased!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r253565871-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -1291,9 +2057,6 @@
   </si>
   <si>
     <t>Nothing spectacular here.  I have had better stays in lower priced hotels.  The amenities leave a lot to be desired.  I simply was not impressed by anything at this location.  I was expecting better from Marriott.MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2015</t>
   </si>
   <si>
     <t>BLIsrael, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded February 12, 2015</t>
@@ -1356,6 +2119,51 @@
   </si>
   <si>
     <t>My husband and I arrived late evening for a business trip. The customer service was excellent!! Everyone, including housekeeping and maintenance greeted us with smiles and a hello!The room was beyond comfortable. After a long day of meetings the shower was awesome. The lighting is superb for applying make up. The pillows....your head literally sinks into clouds of softened cotton. The bed is firm yet soft. The sheets caccoon your body as you sleep in waves of softness. Bottom line it was hard to leave without the entire room in my suv!!! LolEasy access to upscale, taverns,and family dining. The mall is a couple of exits up the highway.I will definitely recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r249873727-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>249873727</t>
+  </si>
+  <si>
+    <t>01/18/2015</t>
+  </si>
+  <si>
+    <t>Beautiful and new!</t>
+  </si>
+  <si>
+    <t>The check-in was easy as was the check-out but plan ahead if you want breakfast in a timely manner. Sloooooow and discombobulated!  Sometimes we would get the whole meal and sometimes you had to chase down your toast or ask to have the oatmeal heated up as it was barely warm.  They definitely haven't learned the importance of a good vacuum cleaner. The same crumbs on the carpet in the stairway on Sunday were the same on Thursday. Little things like that make me nuts. I travel a lot for biz and expect more. (The rooms were beautifully decorated but geeze...run the vacuum cleaner down the hall once in a while!)MoreShow less</t>
+  </si>
+  <si>
+    <t>BLIsrael, General Manager at Courtyard Houston North/Shenandoah, responded to this reviewResponded January 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2015</t>
+  </si>
+  <si>
+    <t>The check-in was easy as was the check-out but plan ahead if you want breakfast in a timely manner. Sloooooow and discombobulated!  Sometimes we would get the whole meal and sometimes you had to chase down your toast or ask to have the oatmeal heated up as it was barely warm.  They definitely haven't learned the importance of a good vacuum cleaner. The same crumbs on the carpet in the stairway on Sunday were the same on Thursday. Little things like that make me nuts. I travel a lot for biz and expect more. (The rooms were beautifully decorated but geeze...run the vacuum cleaner down the hall once in a while!)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d6956306-r244134566-Courtyard_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>244134566</t>
+  </si>
+  <si>
+    <t>12/12/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this new hotel for one night. We were greeted by an extremely friendly and helpful front staff. The hotel lobby is beautifully decorated and invites you to come sit down, read a book or share a cocktail with your family and friends.The room has all the modern conveniences you didn't know could exist in a hotel like USB plug on both sides of the bed for charging phones.  There are ample plugs in convenient locations.It was evident that they had paid attention to details when designing this room. It was very comfortable with a sleeper couch and king sized bed. Great bathroom with a walk in shower that had plenty of places to put your soaps and shampoos.The ONLY thing that we saw lacking was places for your luggage. It would be great for one suitcase but became a bit crowded with two.  I highly recommend this beautifully decorated, clean and friendly hotel. Thank you for a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this new hotel for one night. We were greeted by an extremely friendly and helpful front staff. The hotel lobby is beautifully decorated and invites you to come sit down, read a book or share a cocktail with your family and friends.The room has all the modern conveniences you didn't know could exist in a hotel like USB plug on both sides of the bed for charging phones.  There are ample plugs in convenient locations.It was evident that they had paid attention to details when designing this room. It was very comfortable with a sleeper couch and king sized bed. Great bathroom with a walk in shower that had plenty of places to put your soaps and shampoos.The ONLY thing that we saw lacking was places for your luggage. It would be great for one suitcase but became a bit crowded with two.  I highly recommend this beautifully decorated, clean and friendly hotel. Thank you for a great stay!More</t>
   </si>
 </sst>
 </file>
@@ -1907,14 +2715,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
         <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1930,42 +2734,40 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
@@ -1975,13 +2777,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1997,7 +2799,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2006,47 +2808,43 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -2062,7 +2860,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2071,49 +2869,43 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -2129,7 +2921,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2138,44 +2930,46 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s">
         <v>88</v>
@@ -2218,17 +3012,15 @@
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
@@ -2239,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -2261,48 +3053,58 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
         <v>98</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>99</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>100</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>101</v>
       </c>
-      <c r="L8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
         <v>103</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>104</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -2318,58 +3120,58 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>106</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>107</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>108</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>109</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>110</v>
       </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>111</v>
-      </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" t="s">
         <v>112</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>113</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -2385,52 +3187,58 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>115</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>116</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>117</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>118</v>
       </c>
-      <c r="L10" t="s">
-        <v>119</v>
-      </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
         <v>121</v>
-      </c>
-      <c r="X10" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="11">
@@ -2446,52 +3254,56 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
         <v>124</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>125</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>126</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>127</v>
       </c>
-      <c r="L11" t="s">
-        <v>128</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>129</v>
-      </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
         <v>130</v>
-      </c>
-      <c r="X11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -2507,43 +3319,43 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
         <v>133</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>134</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>135</v>
       </c>
-      <c r="K12" t="s">
-        <v>136</v>
-      </c>
-      <c r="L12" t="s">
-        <v>137</v>
-      </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
       </c>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -2552,13 +3364,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>136</v>
+      </c>
+      <c r="X12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y12" t="s">
         <v>138</v>
-      </c>
-      <c r="X12" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -2574,54 +3386,52 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
         <v>141</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>142</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>143</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>144</v>
-      </c>
-      <c r="L13" t="s">
-        <v>145</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>129</v>
       </c>
       <c r="O13" t="s">
         <v>53</v>
       </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" t="s">
+        <v>146</v>
+      </c>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
@@ -2637,7 +3447,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2646,32 +3456,36 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
@@ -2719,37 +3533,27 @@
         <v>160</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>161</v>
-      </c>
-      <c r="O15" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>161</v>
+      </c>
+      <c r="X15" t="s">
         <v>162</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>163</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -2765,52 +3569,58 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
         <v>165</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>166</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>167</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>168</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
         <v>169</v>
       </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>161</v>
-      </c>
       <c r="O16" t="s">
-        <v>94</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="X16" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Y16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
@@ -2826,7 +3636,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2835,25 +3645,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2865,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="X17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Y17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
@@ -2887,7 +3697,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2896,25 +3706,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2926,13 +3736,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="X18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
@@ -2948,7 +3758,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2957,34 +3767,34 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>5</v>
@@ -2993,13 +3803,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="X19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
@@ -3015,7 +3825,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3024,46 +3834,40 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
         <v>53</v>
       </c>
-      <c r="P20" t="n">
-        <v>2</v>
-      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="X20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Y20" t="s">
         <v>205</v>
@@ -3106,28 +3910,34 @@
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
+        <v>211</v>
+      </c>
+      <c r="X21" t="s">
         <v>212</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>213</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="22">
@@ -3143,48 +3953,54 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
         <v>215</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>216</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>217</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>218</v>
       </c>
-      <c r="L22" t="s">
-        <v>219</v>
-      </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="N22" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>212</v>
-      </c>
-      <c r="X22" t="s">
-        <v>213</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
@@ -3200,52 +4016,56 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
         <v>221</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>222</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>223</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>224</v>
       </c>
-      <c r="L23" t="s">
-        <v>225</v>
-      </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
+        <v>225</v>
+      </c>
+      <c r="X23" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y23" t="s">
         <v>227</v>
-      </c>
-      <c r="X23" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="24">
@@ -3261,40 +4081,40 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>229</v>
+      </c>
+      <c r="J24" t="s">
         <v>230</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>231</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>232</v>
       </c>
-      <c r="K24" t="s">
-        <v>233</v>
-      </c>
-      <c r="L24" t="s">
-        <v>234</v>
-      </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="O24" t="s">
-        <v>69</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -3304,13 +4124,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="X24" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Y24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
@@ -3326,58 +4146,52 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" t="s">
         <v>239</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
         <v>240</v>
       </c>
-      <c r="J25" t="s">
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>241</v>
       </c>
-      <c r="K25" t="s">
-        <v>242</v>
-      </c>
-      <c r="L25" t="s">
-        <v>243</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>235</v>
-      </c>
       <c r="O25" t="s">
-        <v>244</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="X25" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
@@ -3393,37 +4207,39 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>244</v>
+      </c>
+      <c r="J26" t="s">
+        <v>245</v>
+      </c>
+      <c r="K26" t="s">
         <v>246</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
         <v>247</v>
       </c>
-      <c r="J26" t="s">
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
         <v>248</v>
       </c>
-      <c r="K26" t="s">
-        <v>249</v>
-      </c>
-      <c r="L26" t="s">
-        <v>250</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>251</v>
-      </c>
       <c r="O26" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
       <c r="R26" t="n">
         <v>5</v>
       </c>
@@ -3436,13 +4252,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="X26" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Y26" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
@@ -3458,34 +4274,34 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>253</v>
+      </c>
+      <c r="J27" t="s">
+        <v>254</v>
+      </c>
+      <c r="K27" t="s">
         <v>255</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="L27" t="s">
         <v>256</v>
       </c>
-      <c r="J27" t="s">
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
         <v>248</v>
       </c>
-      <c r="K27" t="s">
-        <v>257</v>
-      </c>
-      <c r="L27" t="s">
-        <v>258</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>251</v>
-      </c>
       <c r="O27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3497,13 +4313,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="X27" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Y27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
@@ -3519,36 +4335,38 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" t="s">
         <v>260</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>261</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
         <v>262</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
         <v>263</v>
       </c>
-      <c r="L28" t="s">
-        <v>264</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>251</v>
-      </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
       <c r="Q28" t="n">
         <v>5</v>
       </c>
@@ -3562,13 +4380,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="X28" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="Y28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29">
@@ -3584,7 +4402,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3593,36 +4411,46 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>272</v>
+      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="X29" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="Y29" t="s">
         <v>273</v>
@@ -3665,34 +4493,28 @@
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s">
-        <v>69</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
+        <v>279</v>
+      </c>
+      <c r="X30" t="s">
         <v>280</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>281</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="31">
@@ -3708,45 +4530,41 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>282</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
         <v>283</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>284</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>285</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>286</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
         <v>287</v>
       </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>279</v>
-      </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
@@ -3794,19 +4612,19 @@
         <v>295</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="O32" t="s">
         <v>53</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
         <v>5</v>
       </c>
@@ -3818,13 +4636,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
+        <v>296</v>
+      </c>
+      <c r="X32" t="s">
         <v>297</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>298</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="33">
@@ -3840,38 +4658,40 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>299</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
         <v>300</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>301</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>302</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>303</v>
       </c>
-      <c r="L33" t="s">
-        <v>304</v>
-      </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>296</v>
+        <v>187</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
       <c r="S33" t="n">
         <v>4</v>
       </c>
@@ -3883,13 +4703,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
+        <v>304</v>
+      </c>
+      <c r="X33" t="s">
         <v>305</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>306</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="34">
@@ -3905,41 +4725,43 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>307</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
         <v>308</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>309</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>310</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>311</v>
       </c>
-      <c r="L34" t="s">
-        <v>312</v>
-      </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>296</v>
+        <v>187</v>
       </c>
       <c r="O34" t="s">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>5</v>
@@ -3948,13 +4770,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
+        <v>312</v>
+      </c>
+      <c r="X34" t="s">
         <v>313</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>314</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="35">
@@ -3970,52 +4792,58 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>315</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
         <v>316</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>317</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>318</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>319</v>
       </c>
-      <c r="L35" t="s">
-        <v>320</v>
-      </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="X35" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="Y35" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36">
@@ -4031,58 +4859,52 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>321</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>322</v>
+      </c>
+      <c r="J36" t="s">
+        <v>323</v>
+      </c>
+      <c r="K36" t="s">
+        <v>324</v>
+      </c>
+      <c r="L36" t="s">
         <v>325</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
         <v>326</v>
-      </c>
-      <c r="J36" t="s">
-        <v>327</v>
-      </c>
-      <c r="K36" t="s">
-        <v>328</v>
-      </c>
-      <c r="L36" t="s">
-        <v>329</v>
-      </c>
-      <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>330</v>
       </c>
       <c r="O36" t="s">
         <v>53</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="X36" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
@@ -4098,35 +4920,31 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>330</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>331</v>
+      </c>
+      <c r="J37" t="s">
         <v>332</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>333</v>
       </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
         <v>334</v>
       </c>
-      <c r="K37" t="s">
-        <v>335</v>
-      </c>
-      <c r="L37" t="s">
-        <v>336</v>
-      </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
-      <c r="N37" t="s">
-        <v>321</v>
-      </c>
-      <c r="O37" t="s">
-        <v>53</v>
-      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
@@ -4137,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="X37" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Y37" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38">
@@ -4159,52 +4977,52 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>336</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>337</v>
+      </c>
+      <c r="J38" t="s">
         <v>338</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>339</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>340</v>
       </c>
-      <c r="K38" t="s">
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
         <v>341</v>
       </c>
-      <c r="L38" t="s">
-        <v>342</v>
-      </c>
-      <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>330</v>
-      </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
+      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>342</v>
+      </c>
+      <c r="X38" t="s">
+        <v>343</v>
+      </c>
       <c r="Y38" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39">
@@ -4220,7 +5038,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4229,39 +5047,49 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J39" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K39" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="O39" t="s">
-        <v>94</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
       <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>351</v>
+      </c>
+      <c r="X39" t="s">
+        <v>352</v>
+      </c>
       <c r="Y39" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40">
@@ -4277,7 +5105,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4286,22 +5114,22 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
+        <v>355</v>
+      </c>
+      <c r="J40" t="s">
+        <v>356</v>
+      </c>
+      <c r="K40" t="s">
+        <v>357</v>
+      </c>
+      <c r="L40" t="s">
+        <v>358</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
         <v>350</v>
-      </c>
-      <c r="J40" t="s">
-        <v>351</v>
-      </c>
-      <c r="K40" t="s">
-        <v>352</v>
-      </c>
-      <c r="L40" t="s">
-        <v>353</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s">
-        <v>354</v>
       </c>
       <c r="O40" t="s">
         <v>53</v>
@@ -4309,20 +5137,20 @@
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>351</v>
+      </c>
+      <c r="X40" t="s">
+        <v>352</v>
+      </c>
       <c r="Y40" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41">
@@ -4338,7 +5166,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4347,49 +5175,47 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="J41" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K41" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="L41" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="O41" t="s">
         <v>53</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="s"/>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="X41" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Y41" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42">
@@ -4405,7 +5231,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4414,33 +5240,33 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="J42" t="s">
+        <v>371</v>
+      </c>
+      <c r="K42" t="s">
+        <v>372</v>
+      </c>
+      <c r="L42" t="s">
+        <v>373</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
         <v>365</v>
       </c>
-      <c r="K42" t="s">
-        <v>366</v>
-      </c>
-      <c r="L42" t="s">
-        <v>367</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s">
-        <v>348</v>
-      </c>
       <c r="O42" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
       </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
@@ -4450,13 +5276,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="X42" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Y42" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43">
@@ -4472,7 +5298,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4481,34 +5307,34 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="J43" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="K43" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L43" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="O43" t="s">
-        <v>69</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>5</v>
@@ -4517,13 +5343,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="X43" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Y43" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44">
@@ -4539,7 +5365,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4548,16 +5374,16 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="J44" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K44" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="L44" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
@@ -4568,23 +5394,29 @@
       <c r="O44" t="s">
         <v>53</v>
       </c>
-      <c r="P44" t="s"/>
-      <c r="Q44" t="s"/>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
       <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="X44" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="Y44" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45">
@@ -4600,7 +5432,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4609,30 +5441,28 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="J45" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="K45" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="L45" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="O45" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="P45" t="s"/>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
         <v>5</v>
       </c>
@@ -4645,13 +5475,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="X45" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="Y45" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46">
@@ -4667,7 +5497,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4676,25 +5506,25 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="J46" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K46" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L46" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="O46" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4706,13 +5536,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="X46" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Y46" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47">
@@ -4728,7 +5558,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4737,29 +5567,27 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="J47" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="K47" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="L47" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="n">
         <v>5</v>
       </c>
@@ -4773,13 +5601,13 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="X47" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="Y47" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="48">
@@ -4795,7 +5623,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4804,31 +5632,33 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="J48" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K48" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L48" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
-      </c>
-      <c r="P48" t="s"/>
-      <c r="Q48" t="s"/>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
@@ -4838,13 +5668,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="X48" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Y48" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49">
@@ -4860,7 +5690,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4869,49 +5699,47 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J49" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K49" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L49" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="O49" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="s"/>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
+      <c r="R49" t="s"/>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="X49" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="Y49" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50">
@@ -4927,7 +5755,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4936,26 +5764,22 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="J50" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="K50" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="L50" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
-      </c>
-      <c r="N50" t="s">
-        <v>425</v>
-      </c>
-      <c r="O50" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
       <c r="R50" t="s"/>
@@ -4966,13 +5790,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="X50" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="Y50" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51">
@@ -4988,7 +5812,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -4997,47 +5821,49 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="J51" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K51" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L51" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="O51" t="s">
         <v>53</v>
       </c>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="n">
-        <v>4</v>
-      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="X51" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Y51" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52">
@@ -5053,7 +5879,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5062,43 +5888,2412 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="J52" t="s">
+        <v>446</v>
+      </c>
+      <c r="K52" t="s">
+        <v>447</v>
+      </c>
+      <c r="L52" t="s">
+        <v>448</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
         <v>440</v>
       </c>
-      <c r="K52" t="s">
-        <v>441</v>
-      </c>
-      <c r="L52" t="s">
-        <v>442</v>
-      </c>
-      <c r="M52" t="n">
-        <v>5</v>
-      </c>
-      <c r="N52" t="s">
-        <v>434</v>
-      </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
       <c r="R52" t="s"/>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="X52" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="Y52" t="s">
-        <v>443</v>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>452</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>453</v>
+      </c>
+      <c r="J53" t="s">
+        <v>454</v>
+      </c>
+      <c r="K53" t="s">
+        <v>455</v>
+      </c>
+      <c r="L53" t="s">
+        <v>456</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>414</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>457</v>
+      </c>
+      <c r="X53" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>460</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>461</v>
+      </c>
+      <c r="J54" t="s">
+        <v>462</v>
+      </c>
+      <c r="K54" t="s">
+        <v>463</v>
+      </c>
+      <c r="L54" t="s">
+        <v>464</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>414</v>
+      </c>
+      <c r="O54" t="s">
+        <v>61</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>465</v>
+      </c>
+      <c r="X54" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>468</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>469</v>
+      </c>
+      <c r="J55" t="s">
+        <v>470</v>
+      </c>
+      <c r="K55" t="s">
+        <v>471</v>
+      </c>
+      <c r="L55" t="s">
+        <v>472</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>414</v>
+      </c>
+      <c r="O55" t="s">
+        <v>61</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>473</v>
+      </c>
+      <c r="X55" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>476</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>477</v>
+      </c>
+      <c r="J56" t="s">
+        <v>478</v>
+      </c>
+      <c r="K56" t="s">
+        <v>479</v>
+      </c>
+      <c r="L56" t="s">
+        <v>480</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>414</v>
+      </c>
+      <c r="O56" t="s">
+        <v>61</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>481</v>
+      </c>
+      <c r="X56" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>484</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>485</v>
+      </c>
+      <c r="J57" t="s">
+        <v>486</v>
+      </c>
+      <c r="K57" t="s">
+        <v>487</v>
+      </c>
+      <c r="L57" t="s">
+        <v>488</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>414</v>
+      </c>
+      <c r="O57" t="s">
+        <v>101</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>489</v>
+      </c>
+      <c r="X57" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>492</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>493</v>
+      </c>
+      <c r="J58" t="s">
+        <v>494</v>
+      </c>
+      <c r="K58" t="s">
+        <v>495</v>
+      </c>
+      <c r="L58" t="s">
+        <v>496</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>414</v>
+      </c>
+      <c r="O58" t="s">
+        <v>61</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>497</v>
+      </c>
+      <c r="X58" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>500</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>501</v>
+      </c>
+      <c r="J59" t="s">
+        <v>502</v>
+      </c>
+      <c r="K59" t="s">
+        <v>503</v>
+      </c>
+      <c r="L59" t="s">
+        <v>504</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>505</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>497</v>
+      </c>
+      <c r="X59" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>507</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>508</v>
+      </c>
+      <c r="J60" t="s">
+        <v>509</v>
+      </c>
+      <c r="K60" t="s">
+        <v>510</v>
+      </c>
+      <c r="L60" t="s">
+        <v>511</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>512</v>
+      </c>
+      <c r="O60" t="s">
+        <v>61</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>513</v>
+      </c>
+      <c r="X60" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>516</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>517</v>
+      </c>
+      <c r="J61" t="s">
+        <v>518</v>
+      </c>
+      <c r="K61" t="s">
+        <v>519</v>
+      </c>
+      <c r="L61" t="s">
+        <v>520</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>521</v>
+      </c>
+      <c r="O61" t="s">
+        <v>61</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>513</v>
+      </c>
+      <c r="X61" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>523</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>524</v>
+      </c>
+      <c r="J62" t="s">
+        <v>525</v>
+      </c>
+      <c r="K62" t="s">
+        <v>526</v>
+      </c>
+      <c r="L62" t="s">
+        <v>527</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>512</v>
+      </c>
+      <c r="O62" t="s">
+        <v>61</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>513</v>
+      </c>
+      <c r="X62" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>529</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>530</v>
+      </c>
+      <c r="J63" t="s">
+        <v>531</v>
+      </c>
+      <c r="K63" t="s">
+        <v>532</v>
+      </c>
+      <c r="L63" t="s">
+        <v>533</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>521</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>534</v>
+      </c>
+      <c r="X63" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>537</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>538</v>
+      </c>
+      <c r="J64" t="s">
+        <v>539</v>
+      </c>
+      <c r="K64" t="s">
+        <v>540</v>
+      </c>
+      <c r="L64" t="s">
+        <v>541</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>521</v>
+      </c>
+      <c r="O64" t="s">
+        <v>61</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>534</v>
+      </c>
+      <c r="X64" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>543</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>544</v>
+      </c>
+      <c r="J65" t="s">
+        <v>545</v>
+      </c>
+      <c r="K65" t="s">
+        <v>546</v>
+      </c>
+      <c r="L65" t="s">
+        <v>547</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>521</v>
+      </c>
+      <c r="O65" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>548</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>549</v>
+      </c>
+      <c r="J66" t="s">
+        <v>550</v>
+      </c>
+      <c r="K66" t="s">
+        <v>551</v>
+      </c>
+      <c r="L66" t="s">
+        <v>552</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>553</v>
+      </c>
+      <c r="O66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>554</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>555</v>
+      </c>
+      <c r="J67" t="s">
+        <v>556</v>
+      </c>
+      <c r="K67" t="s">
+        <v>557</v>
+      </c>
+      <c r="L67" t="s">
+        <v>558</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>559</v>
+      </c>
+      <c r="O67" t="s">
+        <v>61</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>560</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>561</v>
+      </c>
+      <c r="J68" t="s">
+        <v>562</v>
+      </c>
+      <c r="K68" t="s">
+        <v>563</v>
+      </c>
+      <c r="L68" t="s">
+        <v>564</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>565</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>566</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>567</v>
+      </c>
+      <c r="J69" t="s">
+        <v>568</v>
+      </c>
+      <c r="K69" t="s">
+        <v>569</v>
+      </c>
+      <c r="L69" t="s">
+        <v>570</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>553</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>571</v>
+      </c>
+      <c r="X69" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>574</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>575</v>
+      </c>
+      <c r="J70" t="s">
+        <v>576</v>
+      </c>
+      <c r="K70" t="s">
+        <v>577</v>
+      </c>
+      <c r="L70" t="s">
+        <v>578</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>553</v>
+      </c>
+      <c r="O70" t="s">
+        <v>61</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>571</v>
+      </c>
+      <c r="X70" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>580</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>581</v>
+      </c>
+      <c r="J71" t="s">
+        <v>582</v>
+      </c>
+      <c r="K71" t="s">
+        <v>583</v>
+      </c>
+      <c r="L71" t="s">
+        <v>584</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>553</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>571</v>
+      </c>
+      <c r="X71" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>586</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>587</v>
+      </c>
+      <c r="J72" t="s">
+        <v>588</v>
+      </c>
+      <c r="K72" t="s">
+        <v>589</v>
+      </c>
+      <c r="L72" t="s">
+        <v>590</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>553</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>571</v>
+      </c>
+      <c r="X72" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>592</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>593</v>
+      </c>
+      <c r="J73" t="s">
+        <v>594</v>
+      </c>
+      <c r="K73" t="s">
+        <v>595</v>
+      </c>
+      <c r="L73" t="s">
+        <v>596</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>565</v>
+      </c>
+      <c r="O73" t="s">
+        <v>61</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>571</v>
+      </c>
+      <c r="X73" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>598</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>599</v>
+      </c>
+      <c r="J74" t="s">
+        <v>600</v>
+      </c>
+      <c r="K74" t="s">
+        <v>601</v>
+      </c>
+      <c r="L74" t="s">
+        <v>602</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>571</v>
+      </c>
+      <c r="X74" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>604</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>605</v>
+      </c>
+      <c r="J75" t="s">
+        <v>606</v>
+      </c>
+      <c r="K75" t="s">
+        <v>607</v>
+      </c>
+      <c r="L75" t="s">
+        <v>608</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>565</v>
+      </c>
+      <c r="O75" t="s">
+        <v>61</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>571</v>
+      </c>
+      <c r="X75" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>610</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>611</v>
+      </c>
+      <c r="J76" t="s">
+        <v>612</v>
+      </c>
+      <c r="K76" t="s">
+        <v>613</v>
+      </c>
+      <c r="L76" t="s">
+        <v>614</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>615</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>571</v>
+      </c>
+      <c r="X76" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>617</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>618</v>
+      </c>
+      <c r="J77" t="s">
+        <v>619</v>
+      </c>
+      <c r="K77" t="s">
+        <v>620</v>
+      </c>
+      <c r="L77" t="s">
+        <v>621</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>615</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>622</v>
+      </c>
+      <c r="X77" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>625</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>626</v>
+      </c>
+      <c r="J78" t="s">
+        <v>627</v>
+      </c>
+      <c r="K78" t="s">
+        <v>628</v>
+      </c>
+      <c r="L78" t="s">
+        <v>629</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>622</v>
+      </c>
+      <c r="X78" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>631</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>632</v>
+      </c>
+      <c r="J79" t="s">
+        <v>633</v>
+      </c>
+      <c r="K79" t="s">
+        <v>634</v>
+      </c>
+      <c r="L79" t="s">
+        <v>635</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>636</v>
+      </c>
+      <c r="O79" t="s">
+        <v>71</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>637</v>
+      </c>
+      <c r="X79" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>640</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>641</v>
+      </c>
+      <c r="J80" t="s">
+        <v>642</v>
+      </c>
+      <c r="K80" t="s">
+        <v>643</v>
+      </c>
+      <c r="L80" t="s">
+        <v>644</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>645</v>
+      </c>
+      <c r="O80" t="s">
+        <v>61</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>637</v>
+      </c>
+      <c r="X80" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>647</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>648</v>
+      </c>
+      <c r="J81" t="s">
+        <v>649</v>
+      </c>
+      <c r="K81" t="s">
+        <v>650</v>
+      </c>
+      <c r="L81" t="s">
+        <v>651</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>645</v>
+      </c>
+      <c r="O81" t="s">
+        <v>61</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>652</v>
+      </c>
+      <c r="X81" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>655</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>656</v>
+      </c>
+      <c r="J82" t="s">
+        <v>657</v>
+      </c>
+      <c r="K82" t="s">
+        <v>658</v>
+      </c>
+      <c r="L82" t="s">
+        <v>659</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>645</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>652</v>
+      </c>
+      <c r="X82" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>661</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>662</v>
+      </c>
+      <c r="J83" t="s">
+        <v>663</v>
+      </c>
+      <c r="K83" t="s">
+        <v>664</v>
+      </c>
+      <c r="L83" t="s">
+        <v>665</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>645</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>652</v>
+      </c>
+      <c r="X83" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>667</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>668</v>
+      </c>
+      <c r="J84" t="s">
+        <v>669</v>
+      </c>
+      <c r="K84" t="s">
+        <v>670</v>
+      </c>
+      <c r="L84" t="s">
+        <v>671</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>672</v>
+      </c>
+      <c r="O84" t="s">
+        <v>61</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>652</v>
+      </c>
+      <c r="X84" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>674</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>675</v>
+      </c>
+      <c r="J85" t="s">
+        <v>676</v>
+      </c>
+      <c r="K85" t="s">
+        <v>677</v>
+      </c>
+      <c r="L85" t="s">
+        <v>678</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>672</v>
+      </c>
+      <c r="O85" t="s">
+        <v>61</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>679</v>
+      </c>
+      <c r="X85" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>682</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>683</v>
+      </c>
+      <c r="J86" t="s">
+        <v>684</v>
+      </c>
+      <c r="K86" t="s">
+        <v>685</v>
+      </c>
+      <c r="L86" t="s">
+        <v>686</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>687</v>
+      </c>
+      <c r="O86" t="s">
+        <v>61</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>688</v>
+      </c>
+      <c r="X86" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>691</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>692</v>
+      </c>
+      <c r="J87" t="s">
+        <v>693</v>
+      </c>
+      <c r="K87" t="s">
+        <v>694</v>
+      </c>
+      <c r="L87" t="s">
+        <v>695</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>687</v>
+      </c>
+      <c r="O87" t="s">
+        <v>61</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>688</v>
+      </c>
+      <c r="X87" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>697</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>698</v>
+      </c>
+      <c r="J88" t="s">
+        <v>699</v>
+      </c>
+      <c r="K88" t="s">
+        <v>700</v>
+      </c>
+      <c r="L88" t="s">
+        <v>701</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>687</v>
+      </c>
+      <c r="O88" t="s">
+        <v>61</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>702</v>
+      </c>
+      <c r="X88" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>63451</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>705</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>706</v>
+      </c>
+      <c r="J89" t="s">
+        <v>707</v>
+      </c>
+      <c r="K89" t="s">
+        <v>708</v>
+      </c>
+      <c r="L89" t="s">
+        <v>709</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>710</v>
+      </c>
+      <c r="O89" t="s">
+        <v>71</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>702</v>
+      </c>
+      <c r="X89" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
